--- a/frontend-cemos/public/assets/content/geopolitica-ri/geopolitica-modernidade/scripts/m_consolidado.xlsx
+++ b/frontend-cemos/public/assets/content/geopolitica-ri/geopolitica-modernidade/scripts/m_consolidado.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L103"/>
+  <dimension ref="A1:M199"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -494,6 +494,11 @@
           <t>ano_prova</t>
         </is>
       </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>bibliografia_id</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -548,6 +553,7 @@
       </c>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -602,6 +608,7 @@
       </c>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
+      <c r="M3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -656,6 +663,7 @@
       </c>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
+      <c r="M4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -710,6 +718,7 @@
       </c>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
+      <c r="M5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -764,6 +773,7 @@
       </c>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
+      <c r="M6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -818,6 +828,7 @@
       </c>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -872,6 +883,7 @@
       </c>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
+      <c r="M8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -926,6 +938,7 @@
       </c>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
+      <c r="M9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -980,6 +993,7 @@
       </c>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
+      <c r="M10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1034,6 +1048,7 @@
       </c>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr"/>
+      <c r="M11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1088,6 +1103,7 @@
       </c>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr"/>
+      <c r="M12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1142,6 +1158,7 @@
       </c>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr"/>
+      <c r="M13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1196,6 +1213,7 @@
       </c>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr"/>
+      <c r="M14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1250,6 +1268,7 @@
       </c>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr"/>
+      <c r="M15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1304,6 +1323,7 @@
       </c>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr"/>
+      <c r="M16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1358,6 +1378,7 @@
       </c>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr"/>
+      <c r="M17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1412,6 +1433,7 @@
       </c>
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr"/>
+      <c r="M18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1466,6 +1488,7 @@
       </c>
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr"/>
+      <c r="M19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1520,6 +1543,7 @@
       </c>
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr"/>
+      <c r="M20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1574,6 +1598,7 @@
       </c>
       <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr"/>
+      <c r="M21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1628,6 +1653,7 @@
       </c>
       <c r="K22" t="inlineStr"/>
       <c r="L22" t="inlineStr"/>
+      <c r="M22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -1682,6 +1708,7 @@
       </c>
       <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr"/>
+      <c r="M23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -1736,6 +1763,7 @@
       </c>
       <c r="K24" t="inlineStr"/>
       <c r="L24" t="inlineStr"/>
+      <c r="M24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -1790,6 +1818,7 @@
       </c>
       <c r="K25" t="inlineStr"/>
       <c r="L25" t="inlineStr"/>
+      <c r="M25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -1844,6 +1873,7 @@
       </c>
       <c r="K26" t="inlineStr"/>
       <c r="L26" t="inlineStr"/>
+      <c r="M26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -1898,6 +1928,7 @@
       </c>
       <c r="K27" t="inlineStr"/>
       <c r="L27" t="inlineStr"/>
+      <c r="M27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -1952,6 +1983,7 @@
       </c>
       <c r="K28" t="inlineStr"/>
       <c r="L28" t="inlineStr"/>
+      <c r="M28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -2006,6 +2038,7 @@
       </c>
       <c r="K29" t="inlineStr"/>
       <c r="L29" t="inlineStr"/>
+      <c r="M29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -2060,6 +2093,7 @@
       </c>
       <c r="K30" t="inlineStr"/>
       <c r="L30" t="inlineStr"/>
+      <c r="M30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -2114,6 +2148,7 @@
       </c>
       <c r="K31" t="inlineStr"/>
       <c r="L31" t="inlineStr"/>
+      <c r="M31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -2168,6 +2203,7 @@
       </c>
       <c r="K32" t="inlineStr"/>
       <c r="L32" t="inlineStr"/>
+      <c r="M32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -2222,6 +2258,7 @@
       </c>
       <c r="K33" t="inlineStr"/>
       <c r="L33" t="inlineStr"/>
+      <c r="M33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -2276,6 +2313,7 @@
       </c>
       <c r="K34" t="inlineStr"/>
       <c r="L34" t="inlineStr"/>
+      <c r="M34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -2330,6 +2368,7 @@
       </c>
       <c r="K35" t="inlineStr"/>
       <c r="L35" t="inlineStr"/>
+      <c r="M35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -2384,6 +2423,7 @@
       </c>
       <c r="K36" t="inlineStr"/>
       <c r="L36" t="inlineStr"/>
+      <c r="M36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -2438,6 +2478,7 @@
       </c>
       <c r="K37" t="inlineStr"/>
       <c r="L37" t="inlineStr"/>
+      <c r="M37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -2492,6 +2533,7 @@
       </c>
       <c r="K38" t="inlineStr"/>
       <c r="L38" t="inlineStr"/>
+      <c r="M38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -2546,6 +2588,7 @@
       </c>
       <c r="K39" t="inlineStr"/>
       <c r="L39" t="inlineStr"/>
+      <c r="M39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -2600,6 +2643,7 @@
       </c>
       <c r="K40" t="inlineStr"/>
       <c r="L40" t="inlineStr"/>
+      <c r="M40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -2654,6 +2698,7 @@
       </c>
       <c r="K41" t="inlineStr"/>
       <c r="L41" t="inlineStr"/>
+      <c r="M41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -2708,6 +2753,7 @@
       </c>
       <c r="K42" t="inlineStr"/>
       <c r="L42" t="inlineStr"/>
+      <c r="M42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -2762,6 +2808,7 @@
       </c>
       <c r="K43" t="inlineStr"/>
       <c r="L43" t="inlineStr"/>
+      <c r="M43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -2816,6 +2863,7 @@
       </c>
       <c r="K44" t="inlineStr"/>
       <c r="L44" t="inlineStr"/>
+      <c r="M44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -2870,6 +2918,7 @@
       </c>
       <c r="K45" t="inlineStr"/>
       <c r="L45" t="inlineStr"/>
+      <c r="M45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -2924,6 +2973,7 @@
       </c>
       <c r="K46" t="inlineStr"/>
       <c r="L46" t="inlineStr"/>
+      <c r="M46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -2978,6 +3028,7 @@
       </c>
       <c r="K47" t="inlineStr"/>
       <c r="L47" t="inlineStr"/>
+      <c r="M47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -3032,6 +3083,7 @@
       </c>
       <c r="K48" t="inlineStr"/>
       <c r="L48" t="inlineStr"/>
+      <c r="M48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -3086,6 +3138,7 @@
       </c>
       <c r="K49" t="inlineStr"/>
       <c r="L49" t="inlineStr"/>
+      <c r="M49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -3140,6 +3193,7 @@
       </c>
       <c r="K50" t="inlineStr"/>
       <c r="L50" t="inlineStr"/>
+      <c r="M50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -3194,6 +3248,7 @@
       </c>
       <c r="K51" t="inlineStr"/>
       <c r="L51" t="inlineStr"/>
+      <c r="M51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -3248,6 +3303,7 @@
       </c>
       <c r="K52" t="inlineStr"/>
       <c r="L52" t="inlineStr"/>
+      <c r="M52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -3302,6 +3358,7 @@
       </c>
       <c r="K53" t="inlineStr"/>
       <c r="L53" t="inlineStr"/>
+      <c r="M53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -3356,6 +3413,7 @@
       </c>
       <c r="K54" t="inlineStr"/>
       <c r="L54" t="inlineStr"/>
+      <c r="M54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -3410,6 +3468,7 @@
       </c>
       <c r="K55" t="inlineStr"/>
       <c r="L55" t="inlineStr"/>
+      <c r="M55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -3464,6 +3523,7 @@
       </c>
       <c r="K56" t="inlineStr"/>
       <c r="L56" t="inlineStr"/>
+      <c r="M56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -3518,6 +3578,7 @@
       </c>
       <c r="K57" t="inlineStr"/>
       <c r="L57" t="inlineStr"/>
+      <c r="M57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -3572,6 +3633,7 @@
       </c>
       <c r="K58" t="inlineStr"/>
       <c r="L58" t="inlineStr"/>
+      <c r="M58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -3626,6 +3688,7 @@
       </c>
       <c r="K59" t="inlineStr"/>
       <c r="L59" t="inlineStr"/>
+      <c r="M59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -3680,6 +3743,7 @@
       </c>
       <c r="K60" t="inlineStr"/>
       <c r="L60" t="inlineStr"/>
+      <c r="M60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -3734,6 +3798,7 @@
       </c>
       <c r="K61" t="inlineStr"/>
       <c r="L61" t="inlineStr"/>
+      <c r="M61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -3788,6 +3853,7 @@
       </c>
       <c r="K62" t="inlineStr"/>
       <c r="L62" t="inlineStr"/>
+      <c r="M62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -3842,6 +3908,7 @@
       </c>
       <c r="K63" t="inlineStr"/>
       <c r="L63" t="inlineStr"/>
+      <c r="M63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -3896,6 +3963,7 @@
       </c>
       <c r="K64" t="inlineStr"/>
       <c r="L64" t="inlineStr"/>
+      <c r="M64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -3950,6 +4018,7 @@
       </c>
       <c r="K65" t="inlineStr"/>
       <c r="L65" t="inlineStr"/>
+      <c r="M65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -4004,6 +4073,7 @@
       </c>
       <c r="K66" t="inlineStr"/>
       <c r="L66" t="inlineStr"/>
+      <c r="M66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -4058,6 +4128,7 @@
       </c>
       <c r="K67" t="inlineStr"/>
       <c r="L67" t="inlineStr"/>
+      <c r="M67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -4112,6 +4183,7 @@
       </c>
       <c r="K68" t="inlineStr"/>
       <c r="L68" t="inlineStr"/>
+      <c r="M68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -4166,6 +4238,7 @@
       </c>
       <c r="K69" t="inlineStr"/>
       <c r="L69" t="inlineStr"/>
+      <c r="M69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -4220,6 +4293,7 @@
       </c>
       <c r="K70" t="inlineStr"/>
       <c r="L70" t="inlineStr"/>
+      <c r="M70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -4274,6 +4348,7 @@
       </c>
       <c r="K71" t="inlineStr"/>
       <c r="L71" t="inlineStr"/>
+      <c r="M71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -4328,6 +4403,7 @@
       </c>
       <c r="K72" t="inlineStr"/>
       <c r="L72" t="inlineStr"/>
+      <c r="M72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -4382,6 +4458,7 @@
       </c>
       <c r="K73" t="inlineStr"/>
       <c r="L73" t="inlineStr"/>
+      <c r="M73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -4436,6 +4513,7 @@
       </c>
       <c r="K74" t="inlineStr"/>
       <c r="L74" t="inlineStr"/>
+      <c r="M74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -4490,6 +4568,7 @@
       </c>
       <c r="K75" t="inlineStr"/>
       <c r="L75" t="inlineStr"/>
+      <c r="M75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -4544,6 +4623,7 @@
       </c>
       <c r="K76" t="inlineStr"/>
       <c r="L76" t="inlineStr"/>
+      <c r="M76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -4598,6 +4678,7 @@
       </c>
       <c r="K77" t="inlineStr"/>
       <c r="L77" t="inlineStr"/>
+      <c r="M77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -4652,6 +4733,7 @@
       </c>
       <c r="K78" t="inlineStr"/>
       <c r="L78" t="inlineStr"/>
+      <c r="M78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -4706,6 +4788,7 @@
       </c>
       <c r="K79" t="inlineStr"/>
       <c r="L79" t="inlineStr"/>
+      <c r="M79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -4760,6 +4843,7 @@
       </c>
       <c r="K80" t="inlineStr"/>
       <c r="L80" t="inlineStr"/>
+      <c r="M80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -4814,6 +4898,7 @@
       </c>
       <c r="K81" t="inlineStr"/>
       <c r="L81" t="inlineStr"/>
+      <c r="M81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -4868,6 +4953,7 @@
       </c>
       <c r="K82" t="inlineStr"/>
       <c r="L82" t="inlineStr"/>
+      <c r="M82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -4922,6 +5008,7 @@
       </c>
       <c r="K83" t="inlineStr"/>
       <c r="L83" t="inlineStr"/>
+      <c r="M83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -4976,6 +5063,7 @@
       </c>
       <c r="K84" t="inlineStr"/>
       <c r="L84" t="inlineStr"/>
+      <c r="M84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -5030,6 +5118,7 @@
       </c>
       <c r="K85" t="inlineStr"/>
       <c r="L85" t="inlineStr"/>
+      <c r="M85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -5084,6 +5173,7 @@
       </c>
       <c r="K86" t="inlineStr"/>
       <c r="L86" t="inlineStr"/>
+      <c r="M86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -5138,6 +5228,7 @@
       </c>
       <c r="K87" t="inlineStr"/>
       <c r="L87" t="inlineStr"/>
+      <c r="M87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -5192,6 +5283,7 @@
       </c>
       <c r="K88" t="inlineStr"/>
       <c r="L88" t="inlineStr"/>
+      <c r="M88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -5246,6 +5338,7 @@
       </c>
       <c r="K89" t="inlineStr"/>
       <c r="L89" t="inlineStr"/>
+      <c r="M89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -5300,6 +5393,7 @@
       </c>
       <c r="K90" t="inlineStr"/>
       <c r="L90" t="inlineStr"/>
+      <c r="M90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -5354,6 +5448,7 @@
       </c>
       <c r="K91" t="inlineStr"/>
       <c r="L91" t="inlineStr"/>
+      <c r="M91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -5408,6 +5503,7 @@
       </c>
       <c r="K92" t="inlineStr"/>
       <c r="L92" t="inlineStr"/>
+      <c r="M92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -5462,6 +5558,7 @@
       </c>
       <c r="K93" t="inlineStr"/>
       <c r="L93" t="inlineStr"/>
+      <c r="M93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -5516,6 +5613,7 @@
       </c>
       <c r="K94" t="inlineStr"/>
       <c r="L94" t="inlineStr"/>
+      <c r="M94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -5570,6 +5668,7 @@
       </c>
       <c r="K95" t="inlineStr"/>
       <c r="L95" t="inlineStr"/>
+      <c r="M95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -5624,6 +5723,7 @@
       </c>
       <c r="K96" t="inlineStr"/>
       <c r="L96" t="inlineStr"/>
+      <c r="M96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -5678,6 +5778,7 @@
       </c>
       <c r="K97" t="inlineStr"/>
       <c r="L97" t="inlineStr"/>
+      <c r="M97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -5732,6 +5833,7 @@
       </c>
       <c r="K98" t="inlineStr"/>
       <c r="L98" t="inlineStr"/>
+      <c r="M98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -5786,6 +5888,7 @@
       </c>
       <c r="K99" t="inlineStr"/>
       <c r="L99" t="inlineStr"/>
+      <c r="M99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -5840,6 +5943,7 @@
       </c>
       <c r="K100" t="inlineStr"/>
       <c r="L100" t="inlineStr"/>
+      <c r="M100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -5894,6 +5998,7 @@
       </c>
       <c r="K101" t="inlineStr"/>
       <c r="L101" t="inlineStr"/>
+      <c r="M101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -5948,6 +6053,7 @@
       </c>
       <c r="K102" t="inlineStr"/>
       <c r="L102" t="inlineStr"/>
+      <c r="M102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -6002,6 +6108,5287 @@
       </c>
       <c r="K103" t="inlineStr"/>
       <c r="L103" t="inlineStr"/>
+      <c r="M103" t="inlineStr"/>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr"/>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>Pág 49</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>Qual dos três principais ramos da Geopolítica foi mais profundamente transformado pelos avanços tecnológicos da modernidade?</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>O econômico</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>O geográfico</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>O histórico</t>
+        </is>
+      </c>
+      <c r="H104" t="inlineStr">
+        <is>
+          <t>O político</t>
+        </is>
+      </c>
+      <c r="I104" t="inlineStr">
+        <is>
+          <t>b</t>
+        </is>
+      </c>
+      <c r="J104" t="inlineStr">
+        <is>
+          <t>Conforme a **Pág 49**, no tópico "**O fator geográfico foi o mais impactado pela modernidade**", o ramo geográfico foi o que recebeu o maior impacto modificador provocado pelos avanços da tecnologia.</t>
+        </is>
+      </c>
+      <c r="K104" t="inlineStr"/>
+      <c r="L104" t="inlineStr"/>
+      <c r="M104" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr"/>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>Pág 50</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>O valor político da “extensão” de um território é considerado de que natureza e por quais motivos?</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>Qualitativo, por sua localização e condições climáticas</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>Relativo, por sua capacidade de se conectar a outros centros de poder</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>Estratégico, por sua maritimidade ou continentalidade</t>
+        </is>
+      </c>
+      <c r="H105" t="inlineStr">
+        <is>
+          <t>Quantitativo, pela população e riquezas naturais que pode abrigar</t>
+        </is>
+      </c>
+      <c r="I105" t="inlineStr">
+        <is>
+          <t>d</t>
+        </is>
+      </c>
+      <c r="J105" t="inlineStr">
+        <is>
+          <t>Conforme o tópico "**A utilização política do espaço depende de dois fatores: extensão e posição**" (Pág 50), o valor da extensão tem peso político quantitativo pela população e riquezas naturais que pode abrigar.</t>
+        </is>
+      </c>
+      <c r="K105" t="inlineStr"/>
+      <c r="L105" t="inlineStr"/>
+      <c r="M105" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr"/>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>Pág 50</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>O autor argumenta que a tecnologia moderna impactou o binômio espaço-tempo de forma desigual. Qual foi a principal consequência dessa interação?</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>O espaço foi mais alterado que o tempo</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>Ambos foram impactados igualmente</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>O tempo foi volatilizado, tornando-se menos limitante que o espaço</t>
+        </is>
+      </c>
+      <c r="H106" t="inlineStr">
+        <is>
+          <t>Nenhum dos dois foi significativamente alterado</t>
+        </is>
+      </c>
+      <c r="I106" t="inlineStr">
+        <is>
+          <t>c</t>
+        </is>
+      </c>
+      <c r="J106" t="inlineStr">
+        <is>
+          <t>Conforme o tópico "**A tecnologia alterou mais o tempo do que o espaço**" (Pág 50), a instantaneidade da comunicação e o encurtamento das distâncias volatizaram o fator tempo, tornando o espaço o fator mais estável do binômio.</t>
+        </is>
+      </c>
+      <c r="K106" t="inlineStr"/>
+      <c r="L106" t="inlineStr"/>
+      <c r="M106" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr"/>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>Pág 50</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>Qual pensador é citado no texto para reforçar a ideia de que o espaço é um fator mais concreto e estável em comparação com o tempo?</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>Descartes</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>Santo Agostinho</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>Einstein</t>
+        </is>
+      </c>
+      <c r="H107" t="inlineStr">
+        <is>
+          <t>Toynbee</t>
+        </is>
+      </c>
+      <c r="I107" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="J107" t="inlineStr">
+        <is>
+          <t>Conforme o tópico **"A tecnologia alterou mais o tempo do que o espaço"** (Pág 50), o texto cita Descartes para afirmar que o espaço é concreto, enquanto o tempo não é.</t>
+        </is>
+      </c>
+      <c r="K107" t="inlineStr"/>
+      <c r="L107" t="inlineStr"/>
+      <c r="M107" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr"/>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>Pág 49</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>O que o texto descreve como a “via vertical” que a modernidade adicionou à exploração do espaço geográfico?</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>O trânsito de mensagens e imagens por meios eletrônicos, como satélites</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>A construção de edifícios cada vez mais altos</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>O desenvolvimento de aeronaves e mísseis balísticos</t>
+        </is>
+      </c>
+      <c r="H108" t="inlineStr">
+        <is>
+          <t>A exploração de recursos minerais profundos</t>
+        </is>
+      </c>
+      <c r="I108" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="J108" t="inlineStr">
+        <is>
+          <t>De acordo com o tópico **"O fator geográfico foi o mais impactado pela modernidade"** (Pág 49), a via vertical é descrita como aquela por onde transitam as mensagens e imagens lançadas por meios eletrônicos.</t>
+        </is>
+      </c>
+      <c r="K108" t="inlineStr"/>
+      <c r="L108" t="inlineStr"/>
+      <c r="M108" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr"/>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>Pág 50</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>Segundo a análise sobre a utilização política do espaço, qual dos seguintes elementos NÃO é mencionado como fator do peso qualitativo da “posição” de um território?</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>A maritimidade ou continentalidade</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>A localização relativa a outros centros de poder</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>A localização geodésica e condições climáticas</t>
+        </is>
+      </c>
+      <c r="H109" t="inlineStr">
+        <is>
+          <t>A estabilidade do regime político e das instituições</t>
+        </is>
+      </c>
+      <c r="I109" t="inlineStr">
+        <is>
+          <t>d</t>
+        </is>
+      </c>
+      <c r="J109" t="inlineStr">
+        <is>
+          <t>Conforme o tópico "**A utilização política do espaço depende de dois fatores: extensão e posição**" (Pág 50), os fatores qualitativos listados são a localização geodésica, natureza do solo, maritimidade, continentalidade e localização relativa, não constando o regime político.</t>
+        </is>
+      </c>
+      <c r="K109" t="inlineStr"/>
+      <c r="L109" t="inlineStr"/>
+      <c r="M109" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr"/>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>Pág 51</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>Qual é a conclusão final do texto sobre o estado da Geopolítica na modernidade após os avanços tecnológicos?</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>Manteve-se inalterada</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>Tornou-se obsoleta</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>Está mais apta e melhor aparelhada para avaliar os interesses do Estado</t>
+        </is>
+      </c>
+      <c r="H110" t="inlineStr">
+        <is>
+          <t>Passou a ser dominada exclusivamente pela informática</t>
+        </is>
+      </c>
+      <c r="I110" t="inlineStr">
+        <is>
+          <t>c</t>
+        </is>
+      </c>
+      <c r="J110" t="inlineStr">
+        <is>
+          <t>De acordo com a conclusão do **Capítulo V** (Pág 51), a Geopolítica saiu enriquecida e está hoje "muito melhor aparelhada" para avaliar o interesse nacional ou internacional.</t>
+        </is>
+      </c>
+      <c r="K110" t="inlineStr"/>
+      <c r="L110" t="inlineStr"/>
+      <c r="M110" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr"/>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>Pág 51</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>Arnold J. Toynbee, Lucien Febvres e Barbara Tuchman são citados no texto por contribuírem para o enriquecimento de qual campo específico?</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>Filosofia do tempo e do espaço</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>Engenharia de transportes</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>Ramo político da Geopolítica</t>
+        </is>
+      </c>
+      <c r="H111" t="inlineStr">
+        <is>
+          <t>Ramo histórico da Geopolítica</t>
+        </is>
+      </c>
+      <c r="I111" t="inlineStr">
+        <is>
+          <t>d</t>
+        </is>
+      </c>
+      <c r="J111" t="inlineStr">
+        <is>
+          <t>Conforme os parágrafos finais da **Pág 51**, a História, terceiro ramo científico formador da Geopolítica, foi enriquecida pelas contribuições desses autores.</t>
+        </is>
+      </c>
+      <c r="K111" t="inlineStr"/>
+      <c r="L111" t="inlineStr"/>
+      <c r="M111" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr"/>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>Pág 49</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>A afirmação de que “as distâncias se encurtaram” funciona como metáfora de qual fenômeno impulsionado pela tecnologia?</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>Formação de alianças políticas</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>Redução do tempo necessário para percorrer o espaço e se comunicar</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>Contração física do planeta</t>
+        </is>
+      </c>
+      <c r="H112" t="inlineStr">
+        <is>
+          <t>Mapeamento completo do globo</t>
+        </is>
+      </c>
+      <c r="I112" t="inlineStr">
+        <is>
+          <t>b</t>
+        </is>
+      </c>
+      <c r="J112" t="inlineStr">
+        <is>
+          <t>De acordo com o tópico "**O fator geográfico foi o mais impactado pela modernidade**" (Pág 49), a expressão refere-se ao efeito dos transportes e telecomunicações que permitem à informação e ao homem alcançar qualquer parte quase instantaneamente.</t>
+        </is>
+      </c>
+      <c r="K112" t="inlineStr"/>
+      <c r="L112" t="inlineStr"/>
+      <c r="M112" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr"/>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>Pág 50</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>Ao contrastar a estabilidade territorial de países como França e China no último século com os avanços tecnológicos, qual ponto o autor pretende enfatizar?</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>A eficácia da diplomacia moderna</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>A maior estabilidade do espaço geográfico em relação ao tempo</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>A falta de interesse expansionista</t>
+        </is>
+      </c>
+      <c r="H113" t="inlineStr">
+        <is>
+          <t>A incapacidade da tecnologia de alterar fronteiras</t>
+        </is>
+      </c>
+      <c r="I113" t="inlineStr">
+        <is>
+          <t>b</t>
+        </is>
+      </c>
+      <c r="J113" t="inlineStr">
+        <is>
+          <t>Conforme o tópico "**A tecnologia alterou mais o tempo do que o espaço**" (Pág 50), o texto argumenta que, embora a tecnologia tenha avançado, países como França e China conservam quase o mesmo território, evidenciando que o espaço é o fator mais estável do binômio.</t>
+        </is>
+      </c>
+      <c r="K113" t="inlineStr"/>
+      <c r="L113" t="inlineStr"/>
+      <c r="M113" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr"/>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>Pág 57</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>Segundo as observações do Embaixador José Oswaldo Meira Penna, quais seriam os dois desafios vitais da segurança externa brasileira identificados já no Tratado de Tordesilhas?</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>A proteção das fronteiras terrestres ao oeste e a proteção da fronteira marítima a leste</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>A manutenção da neutralidade no Atlântico Sul e a expansão para a Bacia do Prata</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>A demarcação da fronteira com as Guianas e a exploração do Pré-Sal</t>
+        </is>
+      </c>
+      <c r="H114" t="inlineStr">
+        <is>
+          <t>O controle da navegação no Rio Amazonas e a fortificação de Fernando de Noronha</t>
+        </is>
+      </c>
+      <c r="I114" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="J114" t="inlineStr">
+        <is>
+          <t>Conforme o primeiro parágrafo da pág. 57, Meira Penna destacou que os dois desafios vitais são a **proteção das fronteiras terrestres a oeste** e a **proteção da fronteira marítima a leste**.</t>
+        </is>
+      </c>
+      <c r="K114" t="inlineStr"/>
+      <c r="L114" t="inlineStr"/>
+      <c r="M114" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr"/>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>Pág 55</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>Qual é a distinção fundamental feita no texto entre Geopolítica e “futurologia” ou “visão adivinhatória”?</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>Não há distinção, pois ambos são sinônimos</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>A futurologia é militar e a Geopolítica ambiental</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>A Geopolítica baseia-se em estatística, história e psicologia para realizar aproximações racionais</t>
+        </is>
+      </c>
+      <c r="H115" t="inlineStr">
+        <is>
+          <t>A Geopolítica é uma ciência exata de previsões absolutas</t>
+        </is>
+      </c>
+      <c r="I115" t="inlineStr">
+        <is>
+          <t>c</t>
+        </is>
+      </c>
+      <c r="J115" t="inlineStr">
+        <is>
+          <t>De acordo com o segundo parágrafo da pág. 55, a Geopolítica não é futurologia, mas baseia-se em elementos racionais de estatística, de história e de psicologia.</t>
+        </is>
+      </c>
+      <c r="K115" t="inlineStr"/>
+      <c r="L115" t="inlineStr"/>
+      <c r="M115" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr"/>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>Pág 58</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>Em seu documento “Lembranças e Apontamentos”, de 1821, José Bonifácio defendeu a interiorização da capital por quais razões geopolíticas principais?</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>Fuga de epidemias e redução de custos administrativos</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>Defesa contra assaltos externos e criação de polo de atração para áreas periféricas</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>Aproximação das minas para controle fiscal</t>
+        </is>
+      </c>
+      <c r="H116" t="inlineStr">
+        <is>
+          <t>Facilitar o comércio com Bolívia e Peru</t>
+        </is>
+      </c>
+      <c r="I116" t="inlineStr">
+        <is>
+          <t>b</t>
+        </is>
+      </c>
+      <c r="J116" t="inlineStr">
+        <is>
+          <t>Conforme o segundo parágrafo da pág. 58, Bonifácio argumentou que a mudança garantiria defesa contra **"assaltos de surpresa externa"** e criaria um **"pólo de atração das áreas periféricas"**.</t>
+        </is>
+      </c>
+      <c r="K116" t="inlineStr"/>
+      <c r="L116" t="inlineStr"/>
+      <c r="M116" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr"/>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>Pág 58</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>Qual o papel atribuído a Alexandre de Gusmão pelo historiador Jaime Cortesão na formação territorial brasileira?</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>Deu legitimidade jurídica às conquistas já realizadas de fato</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>Financiou bandeiras em busca de metais</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>Assinou o Tratado de Tordesilhas</t>
+        </is>
+      </c>
+      <c r="H117" t="inlineStr">
+        <is>
+          <t>Propôs a mudança da capital em 1750</t>
+        </is>
+      </c>
+      <c r="I117" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="J117" t="inlineStr">
+        <is>
+          <t>Segundo o tópico "Alexandre de Gusmão" na pág. 58, Jaime Cortesão afirmou que Gusmão deu legitimidade jurídica ("de jure") àquilo que os bandeirantes já haviam conquistado de fato.</t>
+        </is>
+      </c>
+      <c r="K117" t="inlineStr"/>
+      <c r="L117" t="inlineStr"/>
+      <c r="M117" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr"/>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>Pág 58</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>Everardo Backheuser é considerado o precursor da Geopolítica científica no Brasil por ter introduzido qual elemento na disciplina?</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>Tecnologias de radar de fronteira</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>Criação do Ministério da Defesa</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>Conceito de destino manifesto amazônico</t>
+        </is>
+      </c>
+      <c r="H118" t="inlineStr">
+        <is>
+          <t>Metodologia sistemática baseada nas escolas alemã e francesa</t>
+        </is>
+      </c>
+      <c r="I118" t="inlineStr">
+        <is>
+          <t>d</t>
+        </is>
+      </c>
+      <c r="J118" t="inlineStr">
+        <is>
+          <t>Conforme o último parágrafo da pág. 58, introduz-se o pensamento de Backheuser como fundamentado na metodologia científica das escolas alemã e francesa.</t>
+        </is>
+      </c>
+      <c r="K118" t="inlineStr"/>
+      <c r="L118" t="inlineStr"/>
+      <c r="M118" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr"/>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>Pág 60</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>O “triângulo geopolítico boliviano”, analisado por Mário Travassos, é composto por quais localidades estratégicas?</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>La Paz, Potosí e Santa Cruz de la Sierra</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>Santa Cruz de la Sierra, Cochabamba e Sucre</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>Sucre, Tarija e Oruro</t>
+        </is>
+      </c>
+      <c r="H119" t="inlineStr">
+        <is>
+          <t>Cochabamba, La Paz e Corumbá</t>
+        </is>
+      </c>
+      <c r="I119" t="inlineStr">
+        <is>
+          <t>b</t>
+        </is>
+      </c>
+      <c r="J119" t="inlineStr">
+        <is>
+          <t>Segundo o primeiro parágrafo da pág. 60, Travassos realça o triângulo composto por Santa Cruz de la Sierra, Cochabamba e Sucre.</t>
+        </is>
+      </c>
+      <c r="K119" t="inlineStr"/>
+      <c r="L119" t="inlineStr"/>
+      <c r="M119" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr"/>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>Pág 60</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>Qual era o principal objetivo da política de transportes sugerida por Mário Travassos em “Projeção Continental do Brasil”?</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>Conectar Rio de Janeiro a Manaus por via marítima</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>Facilitar importações europeias por Santos</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>Neutralizar a atração da Bacia do Prata e direcionar o interior aos portos brasileiros</t>
+        </is>
+      </c>
+      <c r="H120" t="inlineStr">
+        <is>
+          <t>Criar monopólio estatal do transporte de café</t>
+        </is>
+      </c>
+      <c r="I120" t="inlineStr">
+        <is>
+          <t>c</t>
+        </is>
+      </c>
+      <c r="J120" t="inlineStr">
+        <is>
+          <t>Conforme o segundo parágrafo da pág. 60, Travassos sugere uma rede ferroviária que leve aos portos brasileiros do Atlântico as influências sobre as regiões interiores, neutralizando a atração da bacia platina.</t>
+        </is>
+      </c>
+      <c r="K120" t="inlineStr"/>
+      <c r="L120" t="inlineStr"/>
+      <c r="M120" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr"/>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>Pág 65</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>De acordo com Everardo Backheuser, qual deveria ser a natureza da responsabilidade sobre a política de fronteiras em um Estado?</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>Gestão internacional compartilhada</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>Atribuição federal, e não regional</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>Abolição das fronteiras</t>
+        </is>
+      </c>
+      <c r="H121" t="inlineStr">
+        <is>
+          <t>Delegação exclusiva aos estados</t>
+        </is>
+      </c>
+      <c r="I121" t="inlineStr">
+        <is>
+          <t>b</t>
+        </is>
+      </c>
+      <c r="J121" t="inlineStr">
+        <is>
+          <t>Segundo o terceiro parágrafo da pág. 65, Backheuser prescreve que a política de fronteira deve ser subordinada ao poder central (atribuição federal), e não a autoridades regionais.</t>
+        </is>
+      </c>
+      <c r="K121" t="inlineStr"/>
+      <c r="L121" t="inlineStr"/>
+      <c r="M121" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr"/>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>Pág 65</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>Quais territórios federais foram criados sob inspiração direta das ideias de Everardo Backheuser?</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>Amapá, Rio Branco, Guaporé e Ilha de Marajó</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>Ponta Porã, Iguaçu, Sete Quedas e Pantanal</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>Amapá, Roraima, Rondônia, Fernando de Noronha, Ponta Porã e Foz do Iguaçu</t>
+        </is>
+      </c>
+      <c r="H122" t="inlineStr">
+        <is>
+          <t>Acre, Tocantins, Mato Grosso do Sul e Guanabara</t>
+        </is>
+      </c>
+      <c r="I122" t="inlineStr">
+        <is>
+          <t>c</t>
+        </is>
+      </c>
+      <c r="J122" t="inlineStr">
+        <is>
+          <t>Conforme o quarto parágrafo da pág. 65, as ideias de Backheuser foram decisivas para a criação dos territórios do Amapá, Roraima, Rondônia, Fernando de Noronha, Ponta Porã e Foz do Iguaçu.</t>
+        </is>
+      </c>
+      <c r="K122" t="inlineStr"/>
+      <c r="L122" t="inlineStr"/>
+      <c r="M122" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr"/>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>Pág 65</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>O Brigadeiro Lysias Rodrigues, em “Geopolítica do Brasil” (1947), enfatizou a importância de qual meio de transporte para a integração nacional?</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>Dirigíveis na Amazônia</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>Aviação para integrar áreas despovoadas e fronteiras do norte</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>Transporte rodoviário de carga</t>
+        </is>
+      </c>
+      <c r="H123" t="inlineStr">
+        <is>
+          <t>Navegação de cabotagem</t>
+        </is>
+      </c>
+      <c r="I123" t="inlineStr">
+        <is>
+          <t>b</t>
+        </is>
+      </c>
+      <c r="J123" t="inlineStr">
+        <is>
+          <t>Segundo o último parágrafo da pág. 65, o autor destaca o papel da aviação para o desenvolvimento de áreas longínquas, despovoadas e das fronteiras terrestres.</t>
+        </is>
+      </c>
+      <c r="K123" t="inlineStr"/>
+      <c r="L123" t="inlineStr"/>
+      <c r="M123" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr"/>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>Pág 69</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>Na visão geopolítica de Golbery do Couto e Silva, o Brasil é descrito como:</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>Uma potência marítima secundária sem projeção no Atlântico Sul</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>Um vasto Império compacto com insularidade em proporções continentais</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>Uma nação fragmentada por regionalismos</t>
+        </is>
+      </c>
+      <c r="H124" t="inlineStr">
+        <is>
+          <t>Um arquipélago econômico dependente do mercado europeu</t>
+        </is>
+      </c>
+      <c r="I124" t="inlineStr">
+        <is>
+          <t>b</t>
+        </is>
+      </c>
+      <c r="J124" t="inlineStr">
+        <is>
+          <t>Conforme o segundo parágrafo da pág. 69, Golbery afirma que as condições geográficas do Brasil asseguram uma "insularidade em proporções continentais", caracterizando-o como um vasto império compacto.</t>
+        </is>
+      </c>
+      <c r="K124" t="inlineStr"/>
+      <c r="L124" t="inlineStr"/>
+      <c r="M124" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr"/>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>Pág 70</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>Segundo a doutrina da Escola Superior de Guerra (ESG), exposta pelo Presidente Castello Branco, qual a diferença entre Defesa Nacional e Segurança Nacional?</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>A Segurança Nacional é mais abrangente, incluindo aspectos psicossociais, desenvolvimento e combate à agressão interna</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>Não há diferença teórica entre os termos</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>A Defesa Nacional cuida da economia e a Segurança das fronteiras marítimas</t>
+        </is>
+      </c>
+      <c r="H125" t="inlineStr">
+        <is>
+          <t>A Segurança Nacional é um conceito puramente externo</t>
+        </is>
+      </c>
+      <c r="I125" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="J125" t="inlineStr">
+        <is>
+          <t>Segundo o terceiro parágrafo da pág. 70, Castello Branco define que a Segurança Nacional é "mais abrangente", incorporando aspectos psicológicos, desenvolvimento e o combate à "agressão interna".</t>
+        </is>
+      </c>
+      <c r="K125" t="inlineStr"/>
+      <c r="L125" t="inlineStr"/>
+      <c r="M125" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr"/>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>Pág 73</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>Qual foi a principal contribuição de Therezinha de Castro para a Geopolítica brasileira na década de 1970?</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>A defesa do direito brasileiro à Antártica baseada no princípio de defrontação</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>A criação do projeto SIVAM</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>A tradução das obras de Ratzel</t>
+        </is>
+      </c>
+      <c r="H126" t="inlineStr">
+        <is>
+          <t>A teoria do “Coração da Terra” aplicada ao Cerrado</t>
+        </is>
+      </c>
+      <c r="I126" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="J126" t="inlineStr">
+        <is>
+          <t>Conforme o primeiro parágrafo da pág. 73, Therezinha reivindicava que o Brasil participasse territorialmente da comunidade antártica, defendendo o seu direito pelo princípio de defrontação.</t>
+        </is>
+      </c>
+      <c r="K126" t="inlineStr"/>
+      <c r="L126" t="inlineStr"/>
+      <c r="M126" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr"/>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>Pág 77</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>A fórmula do Poder Perceptível (Pp) de Ray Cline, citada pelo General Meira Mattos, é expressa como:</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>Pp = C + E + M + S + W</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>Pp = (C + E) / M × (S − W)</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>Pp = (C + E + M) × (S + W)</t>
+        </is>
+      </c>
+      <c r="H127" t="inlineStr">
+        <is>
+          <t>Pp = (C × E) + (M × S) + W</t>
+        </is>
+      </c>
+      <c r="I127" t="inlineStr">
+        <is>
+          <t>c</t>
+        </is>
+      </c>
+      <c r="J127" t="inlineStr">
+        <is>
+          <t>De acordo com o texto ao final da pág. 77, a fórmula é Pp = (C+E+M) X (S+W), onde somam-se massa crítica, capacidade econômica e militar, multiplicadas pela estratégia e vontade nacional,.</t>
+        </is>
+      </c>
+      <c r="K127" t="inlineStr"/>
+      <c r="L127" t="inlineStr"/>
+      <c r="M127" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr"/>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>Pág 80</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>Em “Uma Geopolítica Pan-Amazônica” (1980), Meira Mattos propõe focar o desenvolvimento em qual sub-região como alvo prioritário?</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>Arquipélago de Marajó</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>Litoral paraense</t>
+        </is>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>Zona Franca de Manaus</t>
+        </is>
+      </c>
+      <c r="H128" t="inlineStr">
+        <is>
+          <t>Amazônia Ocidental</t>
+        </is>
+      </c>
+      <c r="I128" t="inlineStr">
+        <is>
+          <t>d</t>
+        </is>
+      </c>
+      <c r="J128" t="inlineStr">
+        <is>
+          <t>Conforme a lista de propostas na pág. 80, Meira Mattos sugere selecionar a Amazônia Ocidental como alvo prioritário por ser a área mais crítica e isolada da região.</t>
+        </is>
+      </c>
+      <c r="K128" t="inlineStr"/>
+      <c r="L128" t="inlineStr"/>
+      <c r="M128" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr"/>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>Pág 81</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>O que Meira Mattos defende em “Geopolítica e Trópicos” (1984) ao citar Arnold Toynbee?</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>A superioridade das raças nórdicas</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>O clima como fator absoluto do progresso</t>
+        </is>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>A contestação do determinismo geográfico por meio da resposta cultural e tecnológica</t>
+        </is>
+      </c>
+      <c r="H129" t="inlineStr">
+        <is>
+          <t>A importação de tecnologias sem adaptação</t>
+        </is>
+      </c>
+      <c r="I129" t="inlineStr">
+        <is>
+          <t>c</t>
+        </is>
+      </c>
+      <c r="J129" t="inlineStr">
+        <is>
+          <t>Segundo o último parágrafo da pág. 81, Meira Mattos usa a teoria do "desafio e resposta" de Toynbee para contestar o determinismo climático e as razões etnocentristas,.</t>
+        </is>
+      </c>
+      <c r="K129" t="inlineStr"/>
+      <c r="L129" t="inlineStr"/>
+      <c r="M129" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr"/>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>Pág 82</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>O Projeto Calha Norte, iniciado em 1985, está alinhado com qual tese defendida por Meira Mattos?</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>Entrega da soberania a organismos internacionais</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>Fortalecimento das fronteiras vazias da Amazônia e estímulo ao intercâmbio fronteiriço</t>
+        </is>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>Abandono das fronteiras terrestres</t>
+        </is>
+      </c>
+      <c r="H130" t="inlineStr">
+        <is>
+          <t>Construção de muralha física</t>
+        </is>
+      </c>
+      <c r="I130" t="inlineStr">
+        <is>
+          <t>b</t>
+        </is>
+      </c>
+      <c r="J130" t="inlineStr">
+        <is>
+          <t>Conforme o penúltimo parágrafo da pág. 82, Meira Mattos afirma que a criação do Projeto Calha Norte correspondia à sua tese de fortalecer as fronteiras, principalmente as vazias lindes amazônicas.</t>
+        </is>
+      </c>
+      <c r="K130" t="inlineStr"/>
+      <c r="L130" t="inlineStr"/>
+      <c r="M130" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr"/>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>Pág 66</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>Segundo Cassiano Ricardo em “Marcha para o Oeste”, como são descritos os brasileiros que se limitavam ao litoral?</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>Exploradores audazes temerosos do interior</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>Caranguejos que se contentam em arranhar as terras ao longo do mar</t>
+        </is>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>Herdeiros do poder marítimo britânico</t>
+        </is>
+      </c>
+      <c r="H131" t="inlineStr">
+        <is>
+          <t>Sentinelas da civilização ocidental</t>
+        </is>
+      </c>
+      <c r="I131" t="inlineStr">
+        <is>
+          <t>b</t>
+        </is>
+      </c>
+      <c r="J131" t="inlineStr">
+        <is>
+          <t>Segundo o último parágrafo da pág. 66, Cassiano Ricardo utiliza a metáfora de Frei Vicente do Salvador para descrever aqueles que se contentavam em "andar arranhando as terras ao longo do mar, como caranguejos".</t>
+        </is>
+      </c>
+      <c r="K131" t="inlineStr"/>
+      <c r="L131" t="inlineStr"/>
+      <c r="M131" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr"/>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>Pág 69</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>A área geopolítica que Golbery do Couto e Silva denomina “área de reserva geral ou de manobra” engloba quais estados?</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>Amazonas, Pará e Mato Grosso</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>Bahia, Pernambuco e Ceará</t>
+        </is>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>São Paulo, Rio de Janeiro, Espírito Santo, Minas Gerais e sul de Goiás</t>
+        </is>
+      </c>
+      <c r="H132" t="inlineStr">
+        <is>
+          <t>Rio Grande do Sul, Santa Catarina e Paraná</t>
+        </is>
+      </c>
+      <c r="I132" t="inlineStr">
+        <is>
+          <t>c</t>
+        </is>
+      </c>
+      <c r="J132" t="inlineStr">
+        <is>
+          <t>Conforme a listagem de áreas geopolíticas na pág. 69, a área de reserva geral abrange São Paulo, Rio de Janeiro, Espírito Santo, Minas Gerais e o Sul de Goiás.</t>
+        </is>
+      </c>
+      <c r="K132" t="inlineStr"/>
+      <c r="L132" t="inlineStr"/>
+      <c r="M132" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr"/>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>Pág 58</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>Para José Bonifácio, qual deveria ser a localização aproximada da nova capital do Brasil?</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>Margens do Rio Amazonas</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>Latitude próxima de 15°, em sítio sadio e com rio navegável</t>
+        </is>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>Extremo sul do país</t>
+        </is>
+      </c>
+      <c r="H133" t="inlineStr">
+        <is>
+          <t>Onde hoje está São Paulo</t>
+        </is>
+      </c>
+      <c r="I133" t="inlineStr">
+        <is>
+          <t>b</t>
+        </is>
+      </c>
+      <c r="J133" t="inlineStr">
+        <is>
+          <t>Segundo o terceiro parágrafo da pág. 58, Bonifácio sugeriu um local em latitude de aproximadamente 15º, em sítio sadio e regado por rio navegável (próximo a Paracatu).</t>
+        </is>
+      </c>
+      <c r="K133" t="inlineStr"/>
+      <c r="L133" t="inlineStr"/>
+      <c r="M133" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr"/>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>Pág 58</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>Qual a importância do Tratado de Madri (1750) na perspectiva de Alexandre de Gusmão?</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>Dividiu o Brasil em capitanias hereditárias para facilitar a defesa</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>Proibiu a entrada de estrangeiros na Amazônia por 100 anos</t>
+        </is>
+      </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>Esboçou as atuais fronteiras políticas do Brasil, legitimando a expansão territorial</t>
+        </is>
+      </c>
+      <c r="H134" t="inlineStr">
+        <is>
+          <t>Estabeleceu a capital do Brasil em Salvador definitivamente</t>
+        </is>
+      </c>
+      <c r="I134" t="inlineStr">
+        <is>
+          <t>c</t>
+        </is>
+      </c>
+      <c r="J134" t="inlineStr">
+        <is>
+          <t>Conforme o tópico sobre Alexandre de Gusmão na pág. 58, o Tratado legitimou as conquistas dos bandeirantes ("de jure" o que era "de fato") e esboçou as atuais fronteiras políticas.</t>
+        </is>
+      </c>
+      <c r="K134" t="inlineStr"/>
+      <c r="L134" t="inlineStr"/>
+      <c r="M134" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr"/>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>Pág 59</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>Mario Travassos destaca dois grandes antagonismos geográficos no subcontinente. Quais são eles?</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>A disputa entre a influência britânica e norte-americana na costa brasileira</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>O conflito entre áreas desérticas e florestas temperadas</t>
+        </is>
+      </c>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>Os antagonismos entre o Norte industrial e o Sul agrário</t>
+        </is>
+      </c>
+      <c r="H135" t="inlineStr">
+        <is>
+          <t>Os antagonismos do Atlântico e do Pacífico, e os do Prata e do Amazonas</t>
+        </is>
+      </c>
+      <c r="I135" t="inlineStr">
+        <is>
+          <t>d</t>
+        </is>
+      </c>
+      <c r="J135" t="inlineStr">
+        <is>
+          <t>Segundo o último parágrafo da pág. 59, Travassos destaca os antagonismos do Atlântico e do Pacífico, bem como os antagonismos do Prata e do Amazonas.</t>
+        </is>
+      </c>
+      <c r="K135" t="inlineStr"/>
+      <c r="L135" t="inlineStr"/>
+      <c r="M135" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr"/>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>Pág 65</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>O que Backheuser queria dizer ao descrever a fronteira como a “epiderme do organismo estatal”?</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>Que o governo deve focar apenas no interior</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>Que a fronteira é superficial e irrelevante</t>
+        </is>
+      </c>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>Que a fronteira capta pressões externas e deve ser subordinada ao poder central</t>
+        </is>
+      </c>
+      <c r="H136" t="inlineStr">
+        <is>
+          <t>Que a fronteira deve ser flexível conforme o crescimento populacional</t>
+        </is>
+      </c>
+      <c r="I136" t="inlineStr">
+        <is>
+          <t>c</t>
+        </is>
+      </c>
+      <c r="J136" t="inlineStr">
+        <is>
+          <t>Conforme o terceiro parágrafo da pág. 65, Backheuser define a fronteira como a "epiderme do organismo estatal", captadora de pressões forâneas, devendo ser subordinada ao poder central.</t>
+        </is>
+      </c>
+      <c r="K136" t="inlineStr"/>
+      <c r="L136" t="inlineStr"/>
+      <c r="M136" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr"/>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>Pág 59</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>A que se refere o termo “nudos” na análise geopolítica de Mario Travassos?</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>Pontos de rebaixamento na Cordilheira dos Andes que facilitam a passagem entre vertentes</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>Entroncamentos ferroviários no Porto de Santos</t>
+        </is>
+      </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>Áreas de floresta densa intransponíveis</t>
+        </is>
+      </c>
+      <c r="H137" t="inlineStr">
+        <is>
+          <t>Conflitos diplomáticos insolúveis</t>
+        </is>
+      </c>
+      <c r="I137" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="J137" t="inlineStr">
+        <is>
+          <t>Segundo o último parágrafo da pág. 59, Travassos define os "nudos" como pontos de rebaixamento na cordilheira que oferecem passagem mais fácil de uma vertente para a outra.</t>
+        </is>
+      </c>
+      <c r="K137" t="inlineStr"/>
+      <c r="L137" t="inlineStr"/>
+      <c r="M137" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr"/>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>Pág 75</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>Qual foi a “correção geopolítica” sugerida por Travassos para lidar com a rede fluvial platina?</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>Desviar o leito do Rio Paraná</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>Criar uma frota de submarinos no Paraguai</t>
+        </is>
+      </c>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>Implantar um sistema vial terrestre que atraísse o interior aos portos brasileiros</t>
+        </is>
+      </c>
+      <c r="H138" t="inlineStr">
+        <is>
+          <t>Construir barragens contra a Argentina</t>
+        </is>
+      </c>
+      <c r="I138" t="inlineStr">
+        <is>
+          <t>c</t>
+        </is>
+      </c>
+      <c r="J138" t="inlineStr">
+        <is>
+          <t>Conforme o primeiro parágrafo da pág. 75, Travassos propõe um "sistema vial terrestre" como uma "correção geopolítica" para neutralizar a força carreadora da rede fluvial platina.</t>
+        </is>
+      </c>
+      <c r="K138" t="inlineStr"/>
+      <c r="L138" t="inlineStr"/>
+      <c r="M138" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr"/>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>Pág 68</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>Em “Geopolítica do Brasil” (1976), como Golbery caracteriza a frente marítima brasileira?</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>Como uma posição marginal no oceano mundial, com o Atlântico Sul excêntrico</t>
+        </is>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>Como o centro absoluto do comércio global</t>
+        </is>
+      </c>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>Como uma barreira intransponível</t>
+        </is>
+      </c>
+      <c r="H139" t="inlineStr">
+        <is>
+          <t>Como extensão direta do Mediterrâneo</t>
+        </is>
+      </c>
+      <c r="I139" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="J139" t="inlineStr">
+        <is>
+          <t>No trecho que precede o marcador da pág. 69 (logo, pág. 68), Golbery descreve a frente marítima como ocupando uma "posição um tanto marginal" onde o Atlântico Sul é um "golfão ainda excêntrico".</t>
+        </is>
+      </c>
+      <c r="K139" t="inlineStr"/>
+      <c r="L139" t="inlineStr"/>
+      <c r="M139" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr"/>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>Pág 70</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>Qual a relação entre “Desenvolvimento” e “Segurança” segundo a aula inaugural de Castello Branco na ESG?</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>O desenvolvimento vem primeiro e gera segurança automaticamente</t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>São conceitos opostos</t>
+        </is>
+      </c>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t>Relação de mútua causalidade, em que um pressupõe o outro</t>
+        </is>
+      </c>
+      <c r="H140" t="inlineStr">
+        <is>
+          <t>A segurança é apenas militar</t>
+        </is>
+      </c>
+      <c r="I140" t="inlineStr">
+        <is>
+          <t>c</t>
+        </is>
+      </c>
+      <c r="J140" t="inlineStr">
+        <is>
+          <t>Conforme o último parágrafo da pág. 70, Castello Branco afirma que desenvolvimento e segurança são ligados por uma "relação de mútua causalidade", onde a verdadeira segurança pressupõe desenvolvimento e vice-versa.</t>
+        </is>
+      </c>
+      <c r="K140" t="inlineStr"/>
+      <c r="L140" t="inlineStr"/>
+      <c r="M140" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr"/>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>Pág 78</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>O General Meira Mattos menciona que sua prospecção para o ano 2000 “errou no tempo” devido a qual evento internacional?</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>Fim da Guerra Fria</t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>Guerra das Malvinas</t>
+        </is>
+      </c>
+      <c r="G141" t="inlineStr">
+        <is>
+          <t>Fracasso do Tratado Pan-Amazônico</t>
+        </is>
+      </c>
+      <c r="H141" t="inlineStr">
+        <is>
+          <t>Crise do petróleo após a criação da OPEP em 1973</t>
+        </is>
+      </c>
+      <c r="I141" t="inlineStr">
+        <is>
+          <t>d</t>
+        </is>
+      </c>
+      <c r="J141" t="inlineStr">
+        <is>
+          <t>Segundo o terceiro parágrafo da pág. 78, a crise mundial provocada pela criação da OPEP em 1973 e o aumento do petróleo desequilibraram a economia, fazendo a previsão errar "no tempo".</t>
+        </is>
+      </c>
+      <c r="K141" t="inlineStr"/>
+      <c r="L141" t="inlineStr"/>
+      <c r="M141" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr"/>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>Pág 80</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>Na estratégia multinacional para a Amazônia, Meira Mattos sugere a criação de “pólos binacionais” inspirados em quais exemplos de fronteira?</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>Letícia/Tabatinga e Guajará-Mirim/Guayaramerín</t>
+        </is>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>Foz do Iguaçu/Ciudad del Este e Ponta Porã/Pedro Juan Caballero</t>
+        </is>
+      </c>
+      <c r="G142" t="inlineStr">
+        <is>
+          <t>Pacaraima/Santa Elena de Uairén</t>
+        </is>
+      </c>
+      <c r="H142" t="inlineStr">
+        <is>
+          <t>Livramento/Rivera e Uruguaiana/Paso de los Libres</t>
+        </is>
+      </c>
+      <c r="I142" t="inlineStr">
+        <is>
+          <t>d</t>
+        </is>
+      </c>
+      <c r="J142" t="inlineStr">
+        <is>
+          <t>Conforme a lista de propostas na pág. 80, Meira Mattos sugere estimular pólos binacionais tomando como modelo os exemplos da fronteira sul (Livramento/Rivera e Uruguaiana/Paso de los Libres).</t>
+        </is>
+      </c>
+      <c r="K142" t="inlineStr"/>
+      <c r="L142" t="inlineStr"/>
+      <c r="M142" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr"/>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>Pág 57</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>Gabriel Soares de Sousa, em 1587, previu que o Brasil se tornaria um Estado soberano e um “grande Império” com qual condição?</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>Após expulsão definitiva de holandeses e franceses</t>
+        </is>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>Com pouca despesa dos reinos de Portugal</t>
+        </is>
+      </c>
+      <c r="G143" t="inlineStr">
+        <is>
+          <t>Com descoberta de urânio no sertão</t>
+        </is>
+      </c>
+      <c r="H143" t="inlineStr">
+        <is>
+          <t>Pela unificação com colônias do Prata</t>
+        </is>
+      </c>
+      <c r="I143" t="inlineStr">
+        <is>
+          <t>b</t>
+        </is>
+      </c>
+      <c r="J143" t="inlineStr">
+        <is>
+          <t>Segundo o trecho citado na pág. 57, Gabriel Soares de Sousa afirma que o Brasil é capaz de edificar um grande Império "com pouca despeza destes reynos".</t>
+        </is>
+      </c>
+      <c r="K143" t="inlineStr"/>
+      <c r="L143" t="inlineStr"/>
+      <c r="M143" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr"/>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>Pág 85</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>De acordo com Meira Penna, qual marco histórico representa o esboço da visão estrutural da geopolítica brasileira?</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>A Proclamação da República</t>
+        </is>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>O Tratado de Tordesilhas</t>
+        </is>
+      </c>
+      <c r="G144" t="inlineStr">
+        <is>
+          <t>O Tratado de Madri</t>
+        </is>
+      </c>
+      <c r="H144" t="inlineStr">
+        <is>
+          <t>A Independência do Brasil</t>
+        </is>
+      </c>
+      <c r="I144" t="inlineStr">
+        <is>
+          <t>b</t>
+        </is>
+      </c>
+      <c r="J144" t="inlineStr">
+        <is>
+          <t>Conforme a **página 85**, Meira Penna mostrou que a visão estrutural da geopolítica brasileira foi esboçada no Tratado de Tordesilhas.</t>
+        </is>
+      </c>
+      <c r="K144" t="inlineStr"/>
+      <c r="L144" t="inlineStr"/>
+      <c r="M144" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr"/>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>Pág 85</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>Qual foi a principal contribuição de Alexandre de Gusmão para a formação territorial brasileira no século XVIII?</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>O estabelecimento do Projeto Calha Norte</t>
+        </is>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>A legitimação das conquistas dos bandeirantes no Tratado de Madri</t>
+        </is>
+      </c>
+      <c r="G145" t="inlineStr">
+        <is>
+          <t>A criação de um sistema de transportes baseado na aviação</t>
+        </is>
+      </c>
+      <c r="H145" t="inlineStr">
+        <is>
+          <t>A interiorização da capital para o Planalto Central</t>
+        </is>
+      </c>
+      <c r="I145" t="inlineStr">
+        <is>
+          <t>b</t>
+        </is>
+      </c>
+      <c r="J145" t="inlineStr">
+        <is>
+          <t>Conforme a **página 85**, Alexandre de Gusmão inseriu no Tratado de Madri dispositivos que legitimaram as conquistas dos bandeirantes paulistas e nortistas.</t>
+        </is>
+      </c>
+      <c r="K145" t="inlineStr"/>
+      <c r="L145" t="inlineStr"/>
+      <c r="M145" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr"/>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>Pág 85</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>José Bonifácio de Andrada e Silva fundamentou sua visão de integração territorial em qual proposta principal?</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>Exploração mineral das fronteiras amazônicas</t>
+        </is>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>Interiorização da capital e sistemas de transportes convergentes</t>
+        </is>
+      </c>
+      <c r="G146" t="inlineStr">
+        <is>
+          <t>Aliança militar estratégica com os Estados Unidos</t>
+        </is>
+      </c>
+      <c r="H146" t="inlineStr">
+        <is>
+          <t>Criação de territórios federais em áreas lindeiras</t>
+        </is>
+      </c>
+      <c r="I146" t="inlineStr">
+        <is>
+          <t>b</t>
+        </is>
+      </c>
+      <c r="J146" t="inlineStr">
+        <is>
+          <t>Segundo a **página 85**, José Bonifácio preconizou a interiorização da capital e a criação de um sistema de transportes terrestres que convergisse para ela.</t>
+        </is>
+      </c>
+      <c r="K146" t="inlineStr"/>
+      <c r="L146" t="inlineStr"/>
+      <c r="M146" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr"/>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>Pág 86</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>O livro “Projeção Continental do Brasil” (1931), de Mário Travassos, propôs contrariar qual tendência geográfica?</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>A influência militar europeia no Atlântico Sul</t>
+        </is>
+      </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>O isolamento da Amazônia em relação aos Andes</t>
+        </is>
+      </c>
+      <c r="G147" t="inlineStr">
+        <is>
+          <t>A ocupação demográfica excessiva do litoral brasileiro</t>
+        </is>
+      </c>
+      <c r="H147" t="inlineStr">
+        <is>
+          <t>A atração econômica exercida pela bacia do Prata em direção a Buenos Aires</t>
+        </is>
+      </c>
+      <c r="I147" t="inlineStr">
+        <is>
+          <t>d</t>
+        </is>
+      </c>
+      <c r="J147" t="inlineStr">
+        <is>
+          <t>De acordo com a **página 86**, Travassos propôs uma política que contrariasse a atração da bacia do Prata sobre as regiões interiores, a qual convergia para Buenos Aires.</t>
+        </is>
+      </c>
+      <c r="K147" t="inlineStr"/>
+      <c r="L147" t="inlineStr"/>
+      <c r="M147" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr"/>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>Pág 86</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>Segundo o texto, o que Mário Travassos definiu como “nudos” em sua proposta geopolítica?</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>Áreas de conflito iminente na fronteira norte</t>
+        </is>
+      </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>Cidades geminadas na fronteira com o Uruguai</t>
+        </is>
+      </c>
+      <c r="G148" t="inlineStr">
+        <is>
+          <t>Pontos de encontro entre rios amazônicos e platinos</t>
+        </is>
+      </c>
+      <c r="H148" t="inlineStr">
+        <is>
+          <t>Regiões de abaixamento na Cordilheira dos Andes para conexões interoceânicas</t>
+        </is>
+      </c>
+      <c r="I148" t="inlineStr">
+        <is>
+          <t>d</t>
+        </is>
+      </c>
+      <c r="J148" t="inlineStr">
+        <is>
+          <t>Conforme a **página 86**, Travassos idealizou a transposição da Cordilheira dos Andes nos "nudos", definidos como regiões de abaixamento para conexões Atlântico-Pacífico.</t>
+        </is>
+      </c>
+      <c r="K148" t="inlineStr"/>
+      <c r="L148" t="inlineStr"/>
+      <c r="M148" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr"/>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>Pág 86</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>Qual era a maior preocupação do Professor Backheuser nas décadas de 1930 e 1940?</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>O abandono da fronteira continental e a necessidade de territórios federais</t>
+        </is>
+      </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>O desenvolvimento de uma marinha nuclear</t>
+        </is>
+      </c>
+      <c r="G149" t="inlineStr">
+        <is>
+          <t>A exportação agrícola via Porto de Santos</t>
+        </is>
+      </c>
+      <c r="H149" t="inlineStr">
+        <is>
+          <t>A influência cultural portuguesa no sertão</t>
+        </is>
+      </c>
+      <c r="I149" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="J149" t="inlineStr">
+        <is>
+          <t>De acordo com a **página 86**, Backheuser apontou como fraqueza inquietante o quase abandono da fronteira continental e sugeriu a criação de territórios federais.</t>
+        </is>
+      </c>
+      <c r="K149" t="inlineStr"/>
+      <c r="L149" t="inlineStr"/>
+      <c r="M149" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr"/>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>Pág 86</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>Como Lysias Rodrigues complementou o pensamento de Mário Travassos sobre transportes?</t>
+        </is>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>Defendendo o uso exclusivo de ferrovias</t>
+        </is>
+      </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>Introduzindo a aviação para mitigar o isolamento da Amazônia e do Oeste</t>
+        </is>
+      </c>
+      <c r="G150" t="inlineStr">
+        <is>
+          <t>Propondo o fim dos corredores de exportação terrestres</t>
+        </is>
+      </c>
+      <c r="H150" t="inlineStr">
+        <is>
+          <t>Priorizando a cabotagem no litoral</t>
+        </is>
+      </c>
+      <c r="I150" t="inlineStr">
+        <is>
+          <t>b</t>
+        </is>
+      </c>
+      <c r="J150" t="inlineStr">
+        <is>
+          <t>Segundo a **página 86**, Lysias Rodrigues viu o emprego da aviação aliviando a situação de isolamento da região limítrofe da Amazônia e do Oeste.</t>
+        </is>
+      </c>
+      <c r="K150" t="inlineStr"/>
+      <c r="L150" t="inlineStr"/>
+      <c r="M150" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr"/>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>Pág 87</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>A obra “Marcha para o Oeste”, de Cassiano Ricardo, visava qual objetivo nacional?</t>
+        </is>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>Fortalecer a presença naval na Antártica</t>
+        </is>
+      </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>Desestimular a imigração estrangeira</t>
+        </is>
+      </c>
+      <c r="G151" t="inlineStr">
+        <is>
+          <t>Criar alianças econômicas andinas</t>
+        </is>
+      </c>
+      <c r="H151" t="inlineStr">
+        <is>
+          <t>Interiorizar o país e transformar sertões em mananciais de riqueza</t>
+        </is>
+      </c>
+      <c r="I151" t="inlineStr">
+        <is>
+          <t>d</t>
+        </is>
+      </c>
+      <c r="J151" t="inlineStr">
+        <is>
+          <t>Conforme a **página 87**, a obra revigorava o espírito nacional para a necessidade de nos interiorizarmos e transformarmos sertões em mananciais de riquezas.</t>
+        </is>
+      </c>
+      <c r="K151" t="inlineStr"/>
+      <c r="L151" t="inlineStr"/>
+      <c r="M151" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr"/>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>Pág 87</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>Golbery do Couto e Silva sugeriu que a segurança nacional brasileira deveria se apoiar em qual pilar diplomático?</t>
+        </is>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>Liderança de um bloco não alinhado</t>
+        </is>
+      </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>Sólida aliança hemisférica com os Estados Unidos</t>
+        </is>
+      </c>
+      <c r="G152" t="inlineStr">
+        <is>
+          <t>Neutralidade absoluta</t>
+        </is>
+      </c>
+      <c r="H152" t="inlineStr">
+        <is>
+          <t>Aliança exclusiva com a OPEP</t>
+        </is>
+      </c>
+      <c r="I152" t="inlineStr">
+        <is>
+          <t>b</t>
+        </is>
+      </c>
+      <c r="J152" t="inlineStr">
+        <is>
+          <t>Segundo a **página 87**, Golbery propôs uma articulação diplomática de sólida aliança hemisférica, indicando como polo importante as boas relações com os Estados Unidos.</t>
+        </is>
+      </c>
+      <c r="K152" t="inlineStr"/>
+      <c r="L152" t="inlineStr"/>
+      <c r="M152" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr"/>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>Pág 87</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>Por que a “ampla manobra estratégica” de Golbery perdeu ritmo de realizações na década de 1970?</t>
+        </is>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>Crises internacionais decorrentes da elevação do preço do petróleo</t>
+        </is>
+      </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>Morte prematura do autor</t>
+        </is>
+      </c>
+      <c r="G153" t="inlineStr">
+        <is>
+          <t>Oposição dos países amazônicos</t>
+        </is>
+      </c>
+      <c r="H153" t="inlineStr">
+        <is>
+          <t>Falta de apoio das Forças Armadas</t>
+        </is>
+      </c>
+      <c r="I153" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="J153" t="inlineStr">
+        <is>
+          <t>De acordo com a **página 87**, a manobra perdeu ritmo devido às duas crises internacionais da década de 1970 provocadas pela elevação do preço do petróleo.</t>
+        </is>
+      </c>
+      <c r="K153" t="inlineStr"/>
+      <c r="L153" t="inlineStr"/>
+      <c r="M153" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr"/>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>Pág 88</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>Quais marcos da política externa brasileira foram antecipados pela Professora Therezinha de Castro?</t>
+        </is>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>Instalação da estação na Antártica e criação do Mercosul</t>
+        </is>
+      </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>O Tratado de Madri e a fixação das fronteiras amazônicas</t>
+        </is>
+      </c>
+      <c r="G154" t="inlineStr">
+        <is>
+          <t>O Projeto Calha Norte e o Avança Brasil</t>
+        </is>
+      </c>
+      <c r="H154" t="inlineStr">
+        <is>
+          <t>A construção de Brasília e a Transamazônica</t>
+        </is>
+      </c>
+      <c r="I154" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="J154" t="inlineStr">
+        <is>
+          <t>Conforme a **página 88**, Therezinha de Castro viu suas ideias antecipadas aceitas, tais como a instalação da estação na Antártica e a criação do Mercosul.</t>
+        </is>
+      </c>
+      <c r="K154" t="inlineStr"/>
+      <c r="L154" t="inlineStr"/>
+      <c r="M154" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr"/>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>Pág 88</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>Na síntese das proposições do autor do texto, qual é a prioridade absoluta para o desenvolvimento nacional?</t>
+        </is>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>A industrialização pesada do Cone Sul</t>
+        </is>
+      </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>A zona portuária do Rio de Janeiro</t>
+        </is>
+      </c>
+      <c r="G155" t="inlineStr">
+        <is>
+          <t>A região da Amazônia</t>
+        </is>
+      </c>
+      <c r="H155" t="inlineStr">
+        <is>
+          <t>O desenvolvimento de energia nuclear para exportação</t>
+        </is>
+      </c>
+      <c r="I155" t="inlineStr">
+        <is>
+          <t>c</t>
+        </is>
+      </c>
+      <c r="J155" t="inlineStr">
+        <is>
+          <t>De acordo com a **página 88**, o autor lista como item 3 de suas proposições que o projeto de desenvolvimento terá que dar prioridade à área da Amazônia.</t>
+        </is>
+      </c>
+      <c r="K155" t="inlineStr"/>
+      <c r="L155" t="inlineStr"/>
+      <c r="M155" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr"/>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>Pág 88</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>Qual estratégia militar o autor defende para proteger a Amazônia contra ameaças externas?</t>
+        </is>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>Bombardeio preventivo de bases estrangeiras vizinhas</t>
+        </is>
+      </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>Submissão das defesas a comando internacional</t>
+        </is>
+      </c>
+      <c r="G156" t="inlineStr">
+        <is>
+          <t>Cercamento total das fronteiras com muros tecnológicos</t>
+        </is>
+      </c>
+      <c r="H156" t="inlineStr">
+        <is>
+          <t>Estratégia de dissuasão baseada em combate na selva</t>
+        </is>
+      </c>
+      <c r="I156" t="inlineStr">
+        <is>
+          <t>d</t>
+        </is>
+      </c>
+      <c r="J156" t="inlineStr">
+        <is>
+          <t>Segundo a **página 88**, o autor defende a estratégia de dissuasão, mantendo uma força adestrada para o combate na selva.</t>
+        </is>
+      </c>
+      <c r="K156" t="inlineStr"/>
+      <c r="L156" t="inlineStr"/>
+      <c r="M156" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr"/>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>Pág 88</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>A proposta do autor de “áreas interiores de intercâmbio fronteiriço” é inspirada em qual modelo real?</t>
+        </is>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>Colônias agrícolas do Plano Nacional de Reforma Agrária</t>
+        </is>
+      </c>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>Zonas de processamento de exportação da China</t>
+        </is>
+      </c>
+      <c r="G157" t="inlineStr">
+        <is>
+          <t>O Canal do Panamá e suas zonas de controle</t>
+        </is>
+      </c>
+      <c r="H157" t="inlineStr">
+        <is>
+          <t>Cidades geminadas como Santana do Livramento e Rivera</t>
+        </is>
+      </c>
+      <c r="I157" t="inlineStr">
+        <is>
+          <t>d</t>
+        </is>
+      </c>
+      <c r="J157" t="inlineStr">
+        <is>
+          <t>Conforme a **página 88**, o autor sugeriu a criação dessas áreas seguindo o modelo das cidades geminadas da fronteira Sul, como Santana do Livramento e Rivera.</t>
+        </is>
+      </c>
+      <c r="K157" t="inlineStr"/>
+      <c r="L157" t="inlineStr"/>
+      <c r="M157" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr"/>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>Pág 90</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>De acordo com Jorge Manuel da Costa Freitas, qual é a característica marcante do pensamento geopolítico brasileiro nos últimos 70 anos?</t>
+        </is>
+      </c>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>Fragmentação total entre teorias civis e militares</t>
+        </is>
+      </c>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>Unidade doutrinária e um substrato ontológico próprio</t>
+        </is>
+      </c>
+      <c r="G158" t="inlineStr">
+        <is>
+          <t>Submissão cega às teorias europeias e americanas</t>
+        </is>
+      </c>
+      <c r="H158" t="inlineStr">
+        <is>
+          <t>Inconsistência ideológica por mudanças de regime</t>
+        </is>
+      </c>
+      <c r="I158" t="inlineStr">
+        <is>
+          <t>b</t>
+        </is>
+      </c>
+      <c r="J158" t="inlineStr">
+        <is>
+          <t>Segundo a **página 90**, Jorge Manuel da Costa Freitas observou que as análises geopolíticas revelam uma unidade doutrinária e um substrato ontológico próprio.</t>
+        </is>
+      </c>
+      <c r="K158" t="inlineStr"/>
+      <c r="L158" t="inlineStr"/>
+      <c r="M158" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr"/>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>Pág 85</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>O que o historiador Gabriel Soares de Sousa profetizou sobre o Brasil em 1578?</t>
+        </is>
+      </c>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>Transferência da capital para o planalto central</t>
+        </is>
+      </c>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>Centralidade econômica da Amazônia</t>
+        </is>
+      </c>
+      <c r="G159" t="inlineStr">
+        <is>
+          <t>Divisão do país em bacias independentes</t>
+        </is>
+      </c>
+      <c r="H159" t="inlineStr">
+        <is>
+          <t>Que seria um dos grandes Estados do mundo sob a ideia de Império</t>
+        </is>
+      </c>
+      <c r="I159" t="inlineStr">
+        <is>
+          <t>d</t>
+        </is>
+      </c>
+      <c r="J159" t="inlineStr">
+        <is>
+          <t>De acordo com a **página 85**, Gabriel Soares de Sousa traduziu seu deslumbramento na ideia de Império, afirmando que o Brasil "será um dos estados do Mundo".</t>
+        </is>
+      </c>
+      <c r="K159" t="inlineStr"/>
+      <c r="L159" t="inlineStr"/>
+      <c r="M159" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr"/>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>Pág 90</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>No resumo da síntese, qual fator é considerado indispensável à integração territorial devido à extensão geográfica do Brasil?</t>
+        </is>
+      </c>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>Manutenção de portos exclusivamente fluviais</t>
+        </is>
+      </c>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t>Uso extensivo de ferrovias a vapor</t>
+        </is>
+      </c>
+      <c r="G160" t="inlineStr">
+        <is>
+          <t>Desenvolvimento aeronáutico</t>
+        </is>
+      </c>
+      <c r="H160" t="inlineStr">
+        <is>
+          <t>Construção de muros defensivos ao longo da fronteira</t>
+        </is>
+      </c>
+      <c r="I160" t="inlineStr">
+        <is>
+          <t>c</t>
+        </is>
+      </c>
+      <c r="J160" t="inlineStr">
+        <is>
+          <t>Conforme a **página 90** (item 5 da síntese), o desenvolvimento aeronáutico é considerado fator indispensável à integração territorial em face da extensão geográfica do País.</t>
+        </is>
+      </c>
+      <c r="K160" t="inlineStr"/>
+      <c r="L160" t="inlineStr"/>
+      <c r="M160" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr"/>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>Pág 85</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>Quais autores debateram a necessidade de o governo ajustar sua política às realidades geográficas entre 1910 e 1940?</t>
+        </is>
+      </c>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>Alberto Torres e Oliveira Vianna</t>
+        </is>
+      </c>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>Therezinha de Castro e Golbery do Couto e Silva</t>
+        </is>
+      </c>
+      <c r="G161" t="inlineStr">
+        <is>
+          <t>Alexandre de Gusmão e José Bonifácio</t>
+        </is>
+      </c>
+      <c r="H161" t="inlineStr">
+        <is>
+          <t>Mário Travassos e Everardo Backheuser</t>
+        </is>
+      </c>
+      <c r="I161" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="J161" t="inlineStr">
+        <is>
+          <t>Segundo a **página 85**, Alberto Torres (décadas de 1910 e 20) e Oliveira Vianna (décadas de 1920 a 40) debateram a necessidade de ajustar a política às realidades geográficas.</t>
+        </is>
+      </c>
+      <c r="K161" t="inlineStr"/>
+      <c r="L161" t="inlineStr"/>
+      <c r="M161" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr"/>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>Pág 88</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>A estratégia de desenvolvimento da Amazônia proposta pelo autor envolve uma ação combinada partindo de quais frentes?</t>
+        </is>
+      </c>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>Exclusivamente pela calha do Rio Amazonas</t>
+        </is>
+      </c>
+      <c r="F162" t="inlineStr">
+        <is>
+          <t>Do litoral para o interior por rodovias</t>
+        </is>
+      </c>
+      <c r="G162" t="inlineStr">
+        <is>
+          <t>Do Sul para o Norte por transporte aéreo</t>
+        </is>
+      </c>
+      <c r="H162" t="inlineStr">
+        <is>
+          <t>Foz do rio, Planalto Central, escarpas andinas e sistema guiano</t>
+        </is>
+      </c>
+      <c r="I162" t="inlineStr">
+        <is>
+          <t>d</t>
+        </is>
+      </c>
+      <c r="J162" t="inlineStr">
+        <is>
+          <t>De acordo com a **página 88**, a estratégia envolve ação combinada partindo da foz do rio, descendo do Planalto Central e declinando das escarpas andinas e do sistema guiano.</t>
+        </is>
+      </c>
+      <c r="K162" t="inlineStr"/>
+      <c r="L162" t="inlineStr"/>
+      <c r="M162" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr"/>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>Pág 88</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>Em relação à economia, o que o autor aponta como requisito para o Brasil se tornar uma potência mundial?</t>
+        </is>
+      </c>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>Fechamento da economia para proteção industrial</t>
+        </is>
+      </c>
+      <c r="F163" t="inlineStr">
+        <is>
+          <t>Substituição da diplomacia por força militar</t>
+        </is>
+      </c>
+      <c r="G163" t="inlineStr">
+        <is>
+          <t>Amplo Projeto de Desenvolvimento Econômico e Social com respeito à democracia</t>
+        </is>
+      </c>
+      <c r="H163" t="inlineStr">
+        <is>
+          <t>Privatização total das riquezas amazônicas</t>
+        </is>
+      </c>
+      <c r="I163" t="inlineStr">
+        <is>
+          <t>c</t>
+        </is>
+      </c>
+      <c r="J163" t="inlineStr">
+        <is>
+          <t>Conforme a **página 88**, o autor elenca a necessidade de um amplo Projeto de Desenvolvimento Econômico e Social que respeite a vocação e o estilo de vida democráticos do povo.</t>
+        </is>
+      </c>
+      <c r="K163" t="inlineStr"/>
+      <c r="L163" t="inlineStr"/>
+      <c r="M163" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr"/>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>Pág 88</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>Qual é a relação entre o Projeto Calha Norte e as ideias do autor do texto?</t>
+        </is>
+      </c>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>O projeto coincidiu com as ideias do autor sobre fortalecer fronteiras despovoadas</t>
+        </is>
+      </c>
+      <c r="F164" t="inlineStr">
+        <is>
+          <t>O projeto foi abandonado por ser considerado obsoleto</t>
+        </is>
+      </c>
+      <c r="G164" t="inlineStr">
+        <is>
+          <t>O autor critica o projeto por excesso de militarização</t>
+        </is>
+      </c>
+      <c r="H164" t="inlineStr">
+        <is>
+          <t>O projeto foi criado para combater as ideias do autor</t>
+        </is>
+      </c>
+      <c r="I164" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="J164" t="inlineStr">
+        <is>
+          <t>De acordo com a **página 88**, o autor afirma que o Projeto Calha Norte coincidiu com suas ideias ao visar desenvolver e fortalecer as áreas de fronteiras mais despovoadas.</t>
+        </is>
+      </c>
+      <c r="K164" t="inlineStr"/>
+      <c r="L164" t="inlineStr"/>
+      <c r="M164" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr"/>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>Pág 90</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>Segundo a síntese de 70 anos de pensamento, qual é a base do valor da maritimidade brasileira?</t>
+        </is>
+      </c>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>A exportação de minérios pela bacia do Prata</t>
+        </is>
+      </c>
+      <c r="F165" t="inlineStr">
+        <is>
+          <t>O controle exclusivo do Estreito de Magalhães</t>
+        </is>
+      </c>
+      <c r="G165" t="inlineStr">
+        <is>
+          <t>Uma respeitada presença estratégica no Atlântico Sul</t>
+        </is>
+      </c>
+      <c r="H165" t="inlineStr">
+        <is>
+          <t>A posse de frotas mercantes nos Grandes Lagos</t>
+        </is>
+      </c>
+      <c r="I165" t="inlineStr">
+        <is>
+          <t>c</t>
+        </is>
+      </c>
+      <c r="J165" t="inlineStr">
+        <is>
+          <t>Conforme o item 4 da **página 90**, o grau de valor da maritimidade brasileira estará sempre assentado numa respeitada presença estratégica no Atlântico Sul.</t>
+        </is>
+      </c>
+      <c r="K165" t="inlineStr"/>
+      <c r="L165" t="inlineStr"/>
+      <c r="M165" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr"/>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>Pág 88</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>Qual destes nomes é associado à ideia de que o desenvolvimento da Amazônia deve ser um esforço conjunto de oito países?</t>
+        </is>
+      </c>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>Everardo Backheuser</t>
+        </is>
+      </c>
+      <c r="F166" t="inlineStr">
+        <is>
+          <t>Cassiano Ricardo</t>
+        </is>
+      </c>
+      <c r="G166" t="inlineStr">
+        <is>
+          <t>Alexandre de Gusmão</t>
+        </is>
+      </c>
+      <c r="H166" t="inlineStr">
+        <is>
+          <t>O autor do texto (Síntese de Geopolítica)</t>
+        </is>
+      </c>
+      <c r="I166" t="inlineStr">
+        <is>
+          <t>d</t>
+        </is>
+      </c>
+      <c r="J166" t="inlineStr">
+        <is>
+          <t>Segundo a **página 88**, o autor do texto propôs, no item 5 de suas ideias, que o desenvolvimento da Amazônia deve ser tratado por uma ação conjunta dos oito países condôminos.</t>
+        </is>
+      </c>
+      <c r="K166" t="inlineStr"/>
+      <c r="L166" t="inlineStr"/>
+      <c r="M166" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr"/>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>Pág 86</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>O que Mario Travassos anteviu sobre o sistema de transportes que hoje é realidade no Brasil?</t>
+        </is>
+      </c>
+      <c r="E167" t="inlineStr">
+        <is>
+          <t>Os corredores de exportação e os sistemas intermodais</t>
+        </is>
+      </c>
+      <c r="F167" t="inlineStr">
+        <is>
+          <t>A substituição dos portos por aeroportos de carga</t>
+        </is>
+      </c>
+      <c r="G167" t="inlineStr">
+        <is>
+          <t>A navegação exclusiva pela bacia do Prata</t>
+        </is>
+      </c>
+      <c r="H167" t="inlineStr">
+        <is>
+          <t>O domínio dos trens de alta velocidade no sertão</t>
+        </is>
+      </c>
+      <c r="I167" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="J167" t="inlineStr">
+        <is>
+          <t>De acordo com a **página 86**, Travassos propôs os atuais "corredores de exportação" e anteviu a importância da aviação nos sistemas intermodais.</t>
+        </is>
+      </c>
+      <c r="K167" t="inlineStr"/>
+      <c r="L167" t="inlineStr"/>
+      <c r="M167" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr"/>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>Pág 87</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>A partir da década de 1950, as propostas de Golbery do Couto e Silva coincidiram com quais períodos de otimismo nacional?</t>
+        </is>
+      </c>
+      <c r="E168" t="inlineStr">
+        <is>
+          <t>A Nova República e o Plano Real</t>
+        </is>
+      </c>
+      <c r="F168" t="inlineStr">
+        <is>
+          <t>A Era Vargas e a Segunda Guerra Mundial</t>
+        </is>
+      </c>
+      <c r="G168" t="inlineStr">
+        <is>
+          <t>A Independência e o Primeiro Reinado</t>
+        </is>
+      </c>
+      <c r="H168" t="inlineStr">
+        <is>
+          <t>O período juscelinista e o “Brasil Grande”</t>
+        </is>
+      </c>
+      <c r="I168" t="inlineStr">
+        <is>
+          <t>d</t>
+        </is>
+      </c>
+      <c r="J168" t="inlineStr">
+        <is>
+          <t>Conforme a **página 87**, as propostas de Golbery coincidiram com os dois surtos desenvolvimentistas que levantaram o otimismo nacional: o período juscelinista e o do "Brasil Grande".</t>
+        </is>
+      </c>
+      <c r="K168" t="inlineStr"/>
+      <c r="L168" t="inlineStr"/>
+      <c r="M168" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr"/>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>Pág 88</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>Qual é a relação sugerida pelo autor entre Segurança Nacional e desenvolvimento econômico?</t>
+        </is>
+      </c>
+      <c r="E169" t="inlineStr">
+        <is>
+          <t>A necessidade de segurança cresce com o êxito do desenvolvimento</t>
+        </is>
+      </c>
+      <c r="F169" t="inlineStr">
+        <is>
+          <t>A segurança deve ser a única prioridade</t>
+        </is>
+      </c>
+      <c r="G169" t="inlineStr">
+        <is>
+          <t>O desenvolvimento deve focar na compra de armamentos</t>
+        </is>
+      </c>
+      <c r="H169" t="inlineStr">
+        <is>
+          <t>O desenvolvimento dispensa forças militares</t>
+        </is>
+      </c>
+      <c r="I169" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="J169" t="inlineStr">
+        <is>
+          <t>Segundo o item 6 da **página 88**, a Segurança Nacional não poderá ser descuidada e sua necessidade crescerá na medida do êxito do projeto desenvolvimentista.</t>
+        </is>
+      </c>
+      <c r="K169" t="inlineStr"/>
+      <c r="L169" t="inlineStr"/>
+      <c r="M169" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr"/>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>Pág 87</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>No contexto da síntese, o termo “Hiléia” refere-se a qual região geográfica?</t>
+        </is>
+      </c>
+      <c r="E170" t="inlineStr">
+        <is>
+          <t>A região coberta pela floresta Amazônica</t>
+        </is>
+      </c>
+      <c r="F170" t="inlineStr">
+        <is>
+          <t>O deserto do Saara brasileiro (Cerrado)</t>
+        </is>
+      </c>
+      <c r="G170" t="inlineStr">
+        <is>
+          <t>As planícies dos Pampas</t>
+        </is>
+      </c>
+      <c r="H170" t="inlineStr">
+        <is>
+          <t>A cadeia de montanhas da Serra do Mar</t>
+        </is>
+      </c>
+      <c r="I170" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="J170" t="inlineStr">
+        <is>
+          <t>De acordo com a **página 87**, o termo Hiléia é utilizado para referir-se à região amazônica, alvo de uma manobra de investida desbravadora.</t>
+        </is>
+      </c>
+      <c r="K170" t="inlineStr"/>
+      <c r="L170" t="inlineStr"/>
+      <c r="M170" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr"/>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>Pág 93</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>De acordo com a citação de Spengler no texto, qual é a postura temporal ideal para a análise geopolítica?</t>
+        </is>
+      </c>
+      <c r="E171" t="inlineStr">
+        <is>
+          <t>Focar apenas no futuro, pois as condições geográficas mudam drasticamente com o tempo</t>
+        </is>
+      </c>
+      <c r="F171" t="inlineStr">
+        <is>
+          <t>Viver no passado para evitar os erros da modernidade tecnológica</t>
+        </is>
+      </c>
+      <c r="G171" t="inlineStr">
+        <is>
+          <t>Ignorar o passado para focar exclusivamente nas inovações tecnológicas do presente</t>
+        </is>
+      </c>
+      <c r="H171" t="inlineStr">
+        <is>
+          <t>Ter o pé no passado, viver o presente e debruçar-se sobre o futuro</t>
+        </is>
+      </c>
+      <c r="I171" t="inlineStr">
+        <is>
+          <t>d</t>
+        </is>
+      </c>
+      <c r="J171" t="inlineStr">
+        <is>
+          <t>Conforme a página 93, o texto cita o filósofo Spengler definindo a postura como estar de "pé no passado, vivendo o presente, nos debruçamos sobre o futuro".</t>
+        </is>
+      </c>
+      <c r="K171" t="inlineStr"/>
+      <c r="L171" t="inlineStr"/>
+      <c r="M171" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr"/>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>Pág 93</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>Qual foi a conclusão de Roberto Pereira da Silva sobre a obra “Brasil, Geopolítica e Destino” (1975), de Meira Mattos?</t>
+        </is>
+      </c>
+      <c r="E172" t="inlineStr">
+        <is>
+          <t>Que o livro era puramente teórico e sem aplicação prática para o Estado brasileiro</t>
+        </is>
+      </c>
+      <c r="F172" t="inlineStr">
+        <is>
+          <t>Que a obra ignorou a importância da Amazônia e focou apenas no litoral</t>
+        </is>
+      </c>
+      <c r="G172" t="inlineStr">
+        <is>
+          <t>Que as previsões foram excessivamente otimistas e não se concretizaram</t>
+        </is>
+      </c>
+      <c r="H172" t="inlineStr">
+        <is>
+          <t>Que o cenário para o ano 2000 previsto na década de 1970 se aproximava da realidade de 2020</t>
+        </is>
+      </c>
+      <c r="I172" t="inlineStr">
+        <is>
+          <t>d</t>
+        </is>
+      </c>
+      <c r="J172" t="inlineStr">
+        <is>
+          <t>Conforme a página 93, Roberto Pereira da Silva concluiu que Meira Mattos elaborou um cenário para o ano 2000 muito próximo ao que se vislumbrava para 2020.</t>
+        </is>
+      </c>
+      <c r="K172" t="inlineStr"/>
+      <c r="L172" t="inlineStr"/>
+      <c r="M172" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr"/>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>Pág 94</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>O termo “Império” é utilizado por diversos autores citados. Qual o sentido atribuído a essa palavra por Golbery do Couto e Silva?</t>
+        </is>
+      </c>
+      <c r="E173" t="inlineStr">
+        <is>
+          <t>A supremacia militar exclusiva sobre o Atlântico Sul</t>
+        </is>
+      </c>
+      <c r="F173" t="inlineStr">
+        <is>
+          <t>A dominação colonial sobre territórios estrangeiros</t>
+        </is>
+      </c>
+      <c r="G173" t="inlineStr">
+        <is>
+          <t>Um sistema monárquico de governo centralizado</t>
+        </is>
+      </c>
+      <c r="H173" t="inlineStr">
+        <is>
+          <t>Uma vasta extensão territorial para governar</t>
+        </is>
+      </c>
+      <c r="I173" t="inlineStr">
+        <is>
+          <t>d</t>
+        </is>
+      </c>
+      <c r="J173" t="inlineStr">
+        <is>
+          <t>De acordo com a página 94, o texto afirma que Golbery do Couto e Silva repete a visão de Império no sentido de "vasta extensão para governar".</t>
+        </is>
+      </c>
+      <c r="K173" t="inlineStr"/>
+      <c r="L173" t="inlineStr"/>
+      <c r="M173" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr"/>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>Pág 95</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>Durante o período de 1964–1984, qual foi a mudança expressiva na posição do PIB mundial do Brasil, segundo Mário Henrique Simonsen?</t>
+        </is>
+      </c>
+      <c r="E174" t="inlineStr">
+        <is>
+          <t>Passou da 48ª para a 8ª posição</t>
+        </is>
+      </c>
+      <c r="F174" t="inlineStr">
+        <is>
+          <t>Manteve-se estável na 10ª posição</t>
+        </is>
+      </c>
+      <c r="G174" t="inlineStr">
+        <is>
+          <t>Passou da 20ª para a 5ª posição</t>
+        </is>
+      </c>
+      <c r="H174" t="inlineStr">
+        <is>
+          <t>Caiu da 8ª para a 48ª posição</t>
+        </is>
+      </c>
+      <c r="I174" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="J174" t="inlineStr">
+        <is>
+          <t>Conforme a página 95, o texto cita dados de Simonsen indicando que o Brasil passou da 48ª posição em 1964 para a 8ª posição em 1984.</t>
+        </is>
+      </c>
+      <c r="K174" t="inlineStr"/>
+      <c r="L174" t="inlineStr"/>
+      <c r="M174" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr"/>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>Pág 95</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>Qual foi a taxa média anual de crescimento do PIB brasileiro durante os vinte anos entre 1964 e 1984?</t>
+        </is>
+      </c>
+      <c r="E175" t="inlineStr">
+        <is>
+          <t>1,5% ao ano</t>
+        </is>
+      </c>
+      <c r="F175" t="inlineStr">
+        <is>
+          <t>6,6% ao ano</t>
+        </is>
+      </c>
+      <c r="G175" t="inlineStr">
+        <is>
+          <t>10,5% ao ano</t>
+        </is>
+      </c>
+      <c r="H175" t="inlineStr">
+        <is>
+          <t>3% ao ano</t>
+        </is>
+      </c>
+      <c r="I175" t="inlineStr">
+        <is>
+          <t>b</t>
+        </is>
+      </c>
+      <c r="J175" t="inlineStr">
+        <is>
+          <t>De acordo com a página 95, o texto afirma que o Brasil cresceu, em média anual, 6,6% durante estes vinte anos.</t>
+        </is>
+      </c>
+      <c r="K175" t="inlineStr"/>
+      <c r="L175" t="inlineStr"/>
+      <c r="M175" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr"/>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>Pág 96</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>No governo de José Sarney, qual foi o resultado prático da aproximação com o presidente Alfonsín da Argentina?</t>
+        </is>
+      </c>
+      <c r="E176" t="inlineStr">
+        <is>
+          <t>A criação do Pacto Amazônico</t>
+        </is>
+      </c>
+      <c r="F176" t="inlineStr">
+        <is>
+          <t>A resolução definitiva da disputa pelas Malvinas</t>
+        </is>
+      </c>
+      <c r="G176" t="inlineStr">
+        <is>
+          <t>A abertura das condições para a criação do Mercosul</t>
+        </is>
+      </c>
+      <c r="H176" t="inlineStr">
+        <is>
+          <t>A construção imediata da Ferro-Norte ligando os dois países</t>
+        </is>
+      </c>
+      <c r="I176" t="inlineStr">
+        <is>
+          <t>c</t>
+        </is>
+      </c>
+      <c r="J176" t="inlineStr">
+        <is>
+          <t>Conforme a página 96, a aproximação com o Presidente Alfonsín resultou na abertura das condições para que se criasse o Mercosul.</t>
+        </is>
+      </c>
+      <c r="K176" t="inlineStr"/>
+      <c r="L176" t="inlineStr"/>
+      <c r="M176" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr"/>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>Pág 96</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>Qual era o objetivo essencial do Projeto Calha Norte, iniciado no governo Sarney?</t>
+        </is>
+      </c>
+      <c r="E177" t="inlineStr">
+        <is>
+          <t>Privatizar as bacias dos rios Amazonas e Solimões</t>
+        </is>
+      </c>
+      <c r="F177" t="inlineStr">
+        <is>
+          <t>Proporcionar segurança e desenvolvimento social e econômico à fronteira Norte</t>
+        </is>
+      </c>
+      <c r="G177" t="inlineStr">
+        <is>
+          <t>Substituir unidades militares por colônias agrícolas civis</t>
+        </is>
+      </c>
+      <c r="H177" t="inlineStr">
+        <is>
+          <t>Focar exclusivamente na exploração de petróleo</t>
+        </is>
+      </c>
+      <c r="I177" t="inlineStr">
+        <is>
+          <t>b</t>
+        </is>
+      </c>
+      <c r="J177" t="inlineStr">
+        <is>
+          <t>De acordo com a página 96, o objetivo essencial do projeto é proporcionar condições de segurança e de desenvolvimento social e econômico à fronteira Norte.</t>
+        </is>
+      </c>
+      <c r="K177" t="inlineStr"/>
+      <c r="L177" t="inlineStr"/>
+      <c r="M177" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr"/>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>Pág 96</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>Segundo o autor, qual foi a principal dificuldade na implementação do Projeto Calha Norte?</t>
+        </is>
+      </c>
+      <c r="E178" t="inlineStr">
+        <is>
+          <t>A oposição diplomática imediata dos países vizinhos</t>
+        </is>
+      </c>
+      <c r="F178" t="inlineStr">
+        <is>
+          <t>A recusa das Forças Armadas em ocupar a região</t>
+        </is>
+      </c>
+      <c r="G178" t="inlineStr">
+        <is>
+          <t>A falta de efetivação da participação dos ministérios civis</t>
+        </is>
+      </c>
+      <c r="H178" t="inlineStr">
+        <is>
+          <t>A impossibilidade técnica de construir pistas de pouso</t>
+        </is>
+      </c>
+      <c r="I178" t="inlineStr">
+        <is>
+          <t>c</t>
+        </is>
+      </c>
+      <c r="J178" t="inlineStr">
+        <is>
+          <t>Conforme a página 96, o autor lamenta que "não foi possível efetivar a participação dos ministérios civis no Projeto", tendo apenas as Forças Armadas cumprido os compromissos.</t>
+        </is>
+      </c>
+      <c r="K178" t="inlineStr"/>
+      <c r="L178" t="inlineStr"/>
+      <c r="M178" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr"/>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>Pág 97</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>O Programa “Nossa Natureza” foi elaborado com qual propósito estratégico?</t>
+        </is>
+      </c>
+      <c r="E179" t="inlineStr">
+        <is>
+          <t>Promover a internacionalização da floresta amazônica</t>
+        </is>
+      </c>
+      <c r="F179" t="inlineStr">
+        <is>
+          <t>Conter a campanha ambientalista internacional e estabelecer o uso correto da floresta</t>
+        </is>
+      </c>
+      <c r="G179" t="inlineStr">
+        <is>
+          <t>Mapear apenas terras indígenas para demarcação externa</t>
+        </is>
+      </c>
+      <c r="H179" t="inlineStr">
+        <is>
+          <t>Interromper obras de infraestrutura para preservação total</t>
+        </is>
+      </c>
+      <c r="I179" t="inlineStr">
+        <is>
+          <t>b</t>
+        </is>
+      </c>
+      <c r="J179" t="inlineStr">
+        <is>
+          <t>De acordo com a página 97, o programa visava "conter a campanha ambientalista internacional" e estabelecer condições para a correta utilização e conservação da floresta.</t>
+        </is>
+      </c>
+      <c r="K179" t="inlineStr"/>
+      <c r="L179" t="inlineStr"/>
+      <c r="M179" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr"/>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>Pág 97</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>Dentre as cinco diretrizes estratégicas propostas pelos geopolíticos brasileiros, qual é considerada o suporte indispensável para as demais?</t>
+        </is>
+      </c>
+      <c r="E180" t="inlineStr">
+        <is>
+          <t>Desenvolvimento Econômico e Social</t>
+        </is>
+      </c>
+      <c r="F180" t="inlineStr">
+        <is>
+          <t>Segurança Interna e Externa</t>
+        </is>
+      </c>
+      <c r="G180" t="inlineStr">
+        <is>
+          <t>Integração Territorial</t>
+        </is>
+      </c>
+      <c r="H180" t="inlineStr">
+        <is>
+          <t>Presença Estratégica no Atlântico Sul</t>
+        </is>
+      </c>
+      <c r="I180" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="J180" t="inlineStr">
+        <is>
+          <t>Conforme a página 97, o texto destaca o Desenvolvimento Econômico e Social como sendo da mais alta prioridade por ser o suporte indispensável das três diretrizes anteriores.</t>
+        </is>
+      </c>
+      <c r="K180" t="inlineStr"/>
+      <c r="L180" t="inlineStr"/>
+      <c r="M180" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr"/>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>Pág 98</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>Em relação ao transporte marítimo, qual medida é sugerida para reduzir a dependência de moeda estrangeira?</t>
+        </is>
+      </c>
+      <c r="E181" t="inlineStr">
+        <is>
+          <t>Substituir todos os portos marítimos por aeroportos de carga</t>
+        </is>
+      </c>
+      <c r="F181" t="inlineStr">
+        <is>
+          <t>Revitalizar a indústria naval e implantar a nacionalização do transporte marítimo</t>
+        </is>
+      </c>
+      <c r="G181" t="inlineStr">
+        <is>
+          <t>Reduzir o comércio internacional para focar apenas no mercado interno</t>
+        </is>
+      </c>
+      <c r="H181" t="inlineStr">
+        <is>
+          <t>Privatizar a totalidade da polícia portuária</t>
+        </is>
+      </c>
+      <c r="I181" t="inlineStr">
+        <is>
+          <t>b</t>
+        </is>
+      </c>
+      <c r="J181" t="inlineStr">
+        <is>
+          <t>De acordo com a página 98, impõe-se revitalizar a indústria naval e nacionalizar o transporte marítimo para livrar o país dos pesados encargos do frete pago em moeda estrangeira.</t>
+        </is>
+      </c>
+      <c r="K181" t="inlineStr"/>
+      <c r="L181" t="inlineStr"/>
+      <c r="M181" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr"/>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>Pág 102</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>No encontro de 2000 em Brasília, qual foi o peso econômico e demográfico total das 12 nações sul-americanas citadas pelo presidente?</t>
+        </is>
+      </c>
+      <c r="E182" t="inlineStr">
+        <is>
+          <t>PIB de 1,3 trilhão de dólares e mercado de 340 milhões de habitantes</t>
+        </is>
+      </c>
+      <c r="F182" t="inlineStr">
+        <is>
+          <t>PIB de 10 trilhões e mercado de 1 bilhão de habitantes</t>
+        </is>
+      </c>
+      <c r="G182" t="inlineStr">
+        <is>
+          <t>PIB de 1 trilhão e 100 milhões de habitantes</t>
+        </is>
+      </c>
+      <c r="H182" t="inlineStr">
+        <is>
+          <t>PIB de 500 bilhões e 500 milhões de habitantes</t>
+        </is>
+      </c>
+      <c r="I182" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="J182" t="inlineStr">
+        <is>
+          <t>Conforme a página 102, o texto cita que as 12 nações unidas representam um PIB de 1,3 trilhão de dólares e um mercado consumidor de 340 milhões de habitantes.</t>
+        </is>
+      </c>
+      <c r="K182" t="inlineStr"/>
+      <c r="L182" t="inlineStr"/>
+      <c r="M182" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr"/>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>Pág 103</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>Qual é a principal ameaça à soberania na Amazônia defendida por certas ONGs internacionais, segundo o autor?</t>
+        </is>
+      </c>
+      <c r="E183" t="inlineStr">
+        <is>
+          <t>A invasão imediata por tropas terrestres de países vizinhos</t>
+        </is>
+      </c>
+      <c r="F183" t="inlineStr">
+        <is>
+          <t>A falta de interesse das potências globais nos recursos naturais</t>
+        </is>
+      </c>
+      <c r="G183" t="inlineStr">
+        <is>
+          <t>A tese da internacionalização da Amazônia como interesse da humanidade</t>
+        </is>
+      </c>
+      <c r="H183" t="inlineStr">
+        <is>
+          <t>O excesso de industrialização pesada por empresas nacionais</t>
+        </is>
+      </c>
+      <c r="I183" t="inlineStr">
+        <is>
+          <t>c</t>
+        </is>
+      </c>
+      <c r="J183" t="inlineStr">
+        <is>
+          <t>De acordo com a página 103, o autor afirma que ONGs defendem a tese da internacionalização da Amazônia como área de interesse da sobrevivência da humanidade, ocultando ambições de poder.</t>
+        </is>
+      </c>
+      <c r="K183" t="inlineStr"/>
+      <c r="L183" t="inlineStr"/>
+      <c r="M183" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr"/>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>Pág 103</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>O que constitui uma “dissuasão estratégica” eficiente para a defesa da Amazônia, segundo o texto?</t>
+        </is>
+      </c>
+      <c r="E184" t="inlineStr">
+        <is>
+          <t>A aceitação das diretrizes das ONGs internacionais</t>
+        </is>
+      </c>
+      <c r="F184" t="inlineStr">
+        <is>
+          <t>Uma força militar com autonomia logística e capacidade de resistência longa e onerosa ao agressor</t>
+        </is>
+      </c>
+      <c r="G184" t="inlineStr">
+        <is>
+          <t>Dependência exclusiva de fornecedores estrangeiros</t>
+        </is>
+      </c>
+      <c r="H184" t="inlineStr">
+        <is>
+          <t>A retirada dos batalhões de engenharia</t>
+        </is>
+      </c>
+      <c r="I184" t="inlineStr">
+        <is>
+          <t>b</t>
+        </is>
+      </c>
+      <c r="J184" t="inlineStr">
+        <is>
+          <t>Conforme a página 103, a dissuasão estratégica exige uma força militar com autonomia logística capaz de oferecer resistência longa e onerosa ao agressor.</t>
+        </is>
+      </c>
+      <c r="K184" t="inlineStr"/>
+      <c r="L184" t="inlineStr"/>
+      <c r="M184" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr"/>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>Pág 104</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>Qual foi a consequência do abandono do programa energético a partir da década de 1980?</t>
+        </is>
+      </c>
+      <c r="E185" t="inlineStr">
+        <is>
+          <t>A independência total das pressões internacionais</t>
+        </is>
+      </c>
+      <c r="F185" t="inlineStr">
+        <is>
+          <t>A descoberta de fontes infinitas de energia limpa</t>
+        </is>
+      </c>
+      <c r="G185" t="inlineStr">
+        <is>
+          <t>O Brasil tornar-se o maior exportador nuclear</t>
+        </is>
+      </c>
+      <c r="H185" t="inlineStr">
+        <is>
+          <t>A exposição do país a risco de crise energética limitadora do progresso</t>
+        </is>
+      </c>
+      <c r="I185" t="inlineStr">
+        <is>
+          <t>d</t>
+        </is>
+      </c>
+      <c r="J185" t="inlineStr">
+        <is>
+          <t>De acordo com a página 104, o texto afirma que o abandono das obras programadas coloca o país diante da ameaça de crise energética inibidora do progresso.</t>
+        </is>
+      </c>
+      <c r="K185" t="inlineStr"/>
+      <c r="L185" t="inlineStr"/>
+      <c r="M185" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr"/>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>Pág 104</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>O autor expressa preocupação com o Ministério da Educação em relação a qual aspecto?</t>
+        </is>
+      </c>
+      <c r="E186" t="inlineStr">
+        <is>
+          <t>O desinteresse pelo ensino da Educação Moral e Cívica</t>
+        </is>
+      </c>
+      <c r="F186" t="inlineStr">
+        <is>
+          <t>O foco exagerado na história das potências coloniais</t>
+        </is>
+      </c>
+      <c r="G186" t="inlineStr">
+        <is>
+          <t>A obrigatoriedade do ensino de línguas estrangeiras</t>
+        </is>
+      </c>
+      <c r="H186" t="inlineStr">
+        <is>
+          <t>O excesso de ensino de tecnologia nas escolas primárias</t>
+        </is>
+      </c>
+      <c r="I186" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="J186" t="inlineStr">
+        <is>
+          <t>Conforme a página 104, o autor declara que "preocupa-nos o desinteresse que o Ministério da Educação vem votando ao ensino da Educação Moral e Cívica".</t>
+        </is>
+      </c>
+      <c r="K186" t="inlineStr"/>
+      <c r="L186" t="inlineStr"/>
+      <c r="M186" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr"/>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>Pág 97</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>Como a “Modernidade” afetou os conceitos geopolíticos, segundo a conclusão do texto?</t>
+        </is>
+      </c>
+      <c r="E187" t="inlineStr">
+        <is>
+          <t>Apenas aprimorou os instrumentos de avaliação e aumentou a agilidade operacional</t>
+        </is>
+      </c>
+      <c r="F187" t="inlineStr">
+        <is>
+          <t>Substituiu o potencial humano pela inteligência artificial</t>
+        </is>
+      </c>
+      <c r="G187" t="inlineStr">
+        <is>
+          <t>Tornou a geografia irrelevante</t>
+        </is>
+      </c>
+      <c r="H187" t="inlineStr">
+        <is>
+          <t>Eliminou a necessidade de soberania nacional</t>
+        </is>
+      </c>
+      <c r="I187" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="J187" t="inlineStr">
+        <is>
+          <t>De acordo com a página 97, o texto conclui que, "no tocante à Geopolítica, a Modernidade só fez aprimorar os seus instrumentos de avaliação".</t>
+        </is>
+      </c>
+      <c r="K187" t="inlineStr"/>
+      <c r="L187" t="inlineStr"/>
+      <c r="M187" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr"/>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>Pág 105</t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t>O que o autor define como “penetração vertical” provocada pela modernidade?</t>
+        </is>
+      </c>
+      <c r="E188" t="inlineStr">
+        <is>
+          <t>A expansão das fronteiras terrestres</t>
+        </is>
+      </c>
+      <c r="F188" t="inlineStr">
+        <is>
+          <t>O aumento da verticalização urbana</t>
+        </is>
+      </c>
+      <c r="G188" t="inlineStr">
+        <is>
+          <t>As radiações emitidas por centros de poder distantes que interferem no controle territorial</t>
+        </is>
+      </c>
+      <c r="H188" t="inlineStr">
+        <is>
+          <t>A perfuração de poços de petróleo ultraprofundos</t>
+        </is>
+      </c>
+      <c r="I188" t="inlineStr">
+        <is>
+          <t>c</t>
+        </is>
+      </c>
+      <c r="J188" t="inlineStr">
+        <is>
+          <t>Conforme a página 105, a penetração vertical refere-se às "radiações emitidas por centros de poder político distantes" que dificultam o exercício do controle territorial.</t>
+        </is>
+      </c>
+      <c r="K188" t="inlineStr"/>
+      <c r="L188" t="inlineStr"/>
+      <c r="M188" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr"/>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>Pág 106</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>Segundo Meira Mattos, qual é a “missão” ou “ideia-força” final deixada para as futuras gerações?</t>
+        </is>
+      </c>
+      <c r="E189" t="inlineStr">
+        <is>
+          <t>Focar o desenvolvimento apenas na zona costeira</t>
+        </is>
+      </c>
+      <c r="F189" t="inlineStr">
+        <is>
+          <t>Renunciar à exploração da Amazônia</t>
+        </is>
+      </c>
+      <c r="G189" t="inlineStr">
+        <is>
+          <t>Alcançar hegemonia militar regional</t>
+        </is>
+      </c>
+      <c r="H189" t="inlineStr">
+        <is>
+          <t>Vitalizar o potencial humano e geográfico do país para construir uma nação próspera e respeitada</t>
+        </is>
+      </c>
+      <c r="I189" t="inlineStr">
+        <is>
+          <t>d</t>
+        </is>
+      </c>
+      <c r="J189" t="inlineStr">
+        <is>
+          <t>De acordo com a página 106, a missão definida é: "vitalizar o potencial humano e geográfico do país, a fim de construir uma das nações mais prósperas e respeitadas do mundo".</t>
+        </is>
+      </c>
+      <c r="K189" t="inlineStr"/>
+      <c r="L189" t="inlineStr"/>
+      <c r="M189" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr"/>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>Pág 95</t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D190" t="inlineStr">
+        <is>
+          <t>Segundo Mário Henrique Simonsen, em 1984, qual era o valor aproximado das exportações brasileiras?</t>
+        </is>
+      </c>
+      <c r="E190" t="inlineStr">
+        <is>
+          <t>27 bilhões de dólares</t>
+        </is>
+      </c>
+      <c r="F190" t="inlineStr">
+        <is>
+          <t>340 bilhões de dólares</t>
+        </is>
+      </c>
+      <c r="G190" t="inlineStr">
+        <is>
+          <t>1,3 trilhão de dólares</t>
+        </is>
+      </c>
+      <c r="H190" t="inlineStr">
+        <is>
+          <t>1,5 bilhão de dólares</t>
+        </is>
+      </c>
+      <c r="I190" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="J190" t="inlineStr">
+        <is>
+          <t>Conforme a página 95, o texto apresenta dados de Simonsen indicando que em 1984 o Brasil atingiu exportações de 27 bilhões de dólares, contra 1,5 bilhão em 1964.</t>
+        </is>
+      </c>
+      <c r="K190" t="inlineStr"/>
+      <c r="L190" t="inlineStr"/>
+      <c r="M190" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr"/>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>Pág 104</t>
+        </is>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D191" t="inlineStr">
+        <is>
+          <t>Segundo o texto, qual disciplina escolar foi gradativamente abandonada, gerando preocupação quanto à formação do sentimento de orgulho nacional?</t>
+        </is>
+      </c>
+      <c r="E191" t="inlineStr">
+        <is>
+          <t>Geografia Física</t>
+        </is>
+      </c>
+      <c r="F191" t="inlineStr">
+        <is>
+          <t>História da América</t>
+        </is>
+      </c>
+      <c r="G191" t="inlineStr">
+        <is>
+          <t>Educação Moral e Cívica</t>
+        </is>
+      </c>
+      <c r="H191" t="inlineStr">
+        <is>
+          <t>Matemática Financeira</t>
+        </is>
+      </c>
+      <c r="I191" t="inlineStr">
+        <is>
+          <t>c</t>
+        </is>
+      </c>
+      <c r="J191" t="inlineStr">
+        <is>
+          <t>De acordo com a página 104, o autor lamenta o desinteresse do Ministério da Educação pelo ensino da Educação Moral e Cívica.</t>
+        </is>
+      </c>
+      <c r="K191" t="inlineStr"/>
+      <c r="L191" t="inlineStr"/>
+      <c r="M191" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr"/>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>Pág 106</t>
+        </is>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D192" t="inlineStr">
+        <is>
+          <t>Qual é a "Mensagem Política" ou "Idéia-Força" final deixada pelo autor para as gerações vindouras?</t>
+        </is>
+      </c>
+      <c r="E192" t="inlineStr">
+        <is>
+          <t>Internacionalizar a Amazônia para garantir sua preservação</t>
+        </is>
+      </c>
+      <c r="F192" t="inlineStr">
+        <is>
+          <t>Vitalizar o potencial humano e geográfico para construir uma nação próspera e respeitada</t>
+        </is>
+      </c>
+      <c r="G192" t="inlineStr">
+        <is>
+          <t>Focar exclusivamente no desenvolvimento do litoral e abandonar o interior</t>
+        </is>
+      </c>
+      <c r="H192" t="inlineStr">
+        <is>
+          <t>Priorizar a importação de tecnologia em detrimento da indústria nacional</t>
+        </is>
+      </c>
+      <c r="I192" t="inlineStr">
+        <is>
+          <t>b</t>
+        </is>
+      </c>
+      <c r="J192" t="inlineStr">
+        <is>
+          <t>Conforme a página 106, a missão é vitalizar o potencial humano e geográfico do país para construir uma das nações mais prósperas e respeitadas do mundo.</t>
+        </is>
+      </c>
+      <c r="K192" t="inlineStr"/>
+      <c r="L192" t="inlineStr"/>
+      <c r="M192" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr"/>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>Pág 97</t>
+        </is>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D193" t="inlineStr">
+        <is>
+          <t>Qual ferrovia o governo Sarney iniciou para conectar a produção agropecuária do Tocantins aos portos do Maranhão e São Paulo?</t>
+        </is>
+      </c>
+      <c r="E193" t="inlineStr">
+        <is>
+          <t>E.F. Carajás</t>
+        </is>
+      </c>
+      <c r="F193" t="inlineStr">
+        <is>
+          <t>Ferrovia Oeste–Leste</t>
+        </is>
+      </c>
+      <c r="G193" t="inlineStr">
+        <is>
+          <t>Ferrovia Transnordestina</t>
+        </is>
+      </c>
+      <c r="H193" t="inlineStr">
+        <is>
+          <t>Ferro-Norte</t>
+        </is>
+      </c>
+      <c r="I193" t="inlineStr">
+        <is>
+          <t>d</t>
+        </is>
+      </c>
+      <c r="J193" t="inlineStr">
+        <is>
+          <t>Conforme a página 97, o Governo Sarney projetou e iniciou a construção da Ferro-Norte para colocar a produção da Bacia do Tocantins ao alcance dos mercados consumidores e portos.</t>
+        </is>
+      </c>
+      <c r="K193" t="inlineStr"/>
+      <c r="L193" t="inlineStr"/>
+      <c r="M193" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr"/>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>Pág 105</t>
+        </is>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D194" t="inlineStr">
+        <is>
+          <t>Por que a Geopolítica é definida no texto como “ciência e arte”?</t>
+        </is>
+      </c>
+      <c r="E194" t="inlineStr">
+        <is>
+          <t>Porque exige pintura de mapas e catalogação biológica</t>
+        </is>
+      </c>
+      <c r="F194" t="inlineStr">
+        <is>
+          <t>Por utilizar o território transformando-o em Poder Político</t>
+        </is>
+      </c>
+      <c r="G194" t="inlineStr">
+        <is>
+          <t>Porque depende exclusivamente da criatividade artística</t>
+        </is>
+      </c>
+      <c r="H194" t="inlineStr">
+        <is>
+          <t>Porque a história ignora dados geográficos</t>
+        </is>
+      </c>
+      <c r="I194" t="inlineStr">
+        <is>
+          <t>b</t>
+        </is>
+      </c>
+      <c r="J194" t="inlineStr">
+        <is>
+          <t>De acordo com a página 105, a Geopolítica é definida como a ciência e arte de utilizar o território transformando-o em Poder Político.</t>
+        </is>
+      </c>
+      <c r="K194" t="inlineStr"/>
+      <c r="L194" t="inlineStr"/>
+      <c r="M194" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr"/>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>Pág 105</t>
+        </is>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D195" t="inlineStr">
+        <is>
+          <t>Qual a relação entre tecnologia e matéria-prima defendida pelo autor?</t>
+        </is>
+      </c>
+      <c r="E195" t="inlineStr">
+        <is>
+          <t>A tecnologia substitui a necessidade de mão de obra humana</t>
+        </is>
+      </c>
+      <c r="F195" t="inlineStr">
+        <is>
+          <t>A tecnologia nasce da utilização da matéria-prima do meio físico</t>
+        </is>
+      </c>
+      <c r="G195" t="inlineStr">
+        <is>
+          <t>A tecnologia torna a matéria-prima obsoleta</t>
+        </is>
+      </c>
+      <c r="H195" t="inlineStr">
+        <is>
+          <t>Matérias-primas são recursos apenas políticos</t>
+        </is>
+      </c>
+      <c r="I195" t="inlineStr">
+        <is>
+          <t>b</t>
+        </is>
+      </c>
+      <c r="J195" t="inlineStr">
+        <is>
+          <t>Na página 105, o autor defende a Geografia lembrando que "toda tecnologia nasce da utilização da matéria-prima encontrada no meio físico".</t>
+        </is>
+      </c>
+      <c r="K195" t="inlineStr"/>
+      <c r="L195" t="inlineStr"/>
+      <c r="M195" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr"/>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>Pág 102</t>
+        </is>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D196" t="inlineStr">
+        <is>
+          <t>Em relação à integração sul-americana, qual passo diplomático é sugerido para unir os oceanos Atlântico e Pacífico?</t>
+        </is>
+      </c>
+      <c r="E196" t="inlineStr">
+        <is>
+          <t>Construção de túnel submarino Brasil–Chile</t>
+        </is>
+      </c>
+      <c r="F196" t="inlineStr">
+        <is>
+          <t>Integrar o Mercosul ao Pacto Andino</t>
+        </is>
+      </c>
+      <c r="G196" t="inlineStr">
+        <is>
+          <t>Proibir navios estrangeiros nas águas regionais</t>
+        </is>
+      </c>
+      <c r="H196" t="inlineStr">
+        <is>
+          <t>Abandonar o Mercosul</t>
+        </is>
+      </c>
+      <c r="I196" t="inlineStr">
+        <is>
+          <t>b</t>
+        </is>
+      </c>
+      <c r="J196" t="inlineStr">
+        <is>
+          <t>Conforme a página 102, o autor sugere aproveitar as estruturas regionais para integrar o Mercosul ao Pacto Andino, visando o acesso comercial aos mercados do Atlântico e do Pacífico.</t>
+        </is>
+      </c>
+      <c r="K196" t="inlineStr"/>
+      <c r="L196" t="inlineStr"/>
+      <c r="M196" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr"/>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>Pág 105</t>
+        </is>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D197" t="inlineStr">
+        <is>
+          <t>Segundo o autor, que tipo de elite é necessária para governar o Brasil diante dos desafios da modernidade?</t>
+        </is>
+      </c>
+      <c r="E197" t="inlineStr">
+        <is>
+          <t>Elites focadas apenas no agronegócio</t>
+        </is>
+      </c>
+      <c r="F197" t="inlineStr">
+        <is>
+          <t>Elites puramente militares</t>
+        </is>
+      </c>
+      <c r="G197" t="inlineStr">
+        <is>
+          <t>Elites compostas por investidores estrangeiros</t>
+        </is>
+      </c>
+      <c r="H197" t="inlineStr">
+        <is>
+          <t>Elites políticas, científicas e técnicas diversificadas</t>
+        </is>
+      </c>
+      <c r="I197" t="inlineStr">
+        <is>
+          <t>d</t>
+        </is>
+      </c>
+      <c r="J197" t="inlineStr">
+        <is>
+          <t>De acordo com a página 105, a importância da educação é capital para a formação de elites diversificadas — políticas, científicas e técnicas — capazes de utilizar os instrumentos de progresso.</t>
+        </is>
+      </c>
+      <c r="K197" t="inlineStr"/>
+      <c r="L197" t="inlineStr"/>
+      <c r="M197" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr"/>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>Pág 101</t>
+        </is>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D198" t="inlineStr">
+        <is>
+          <t>Qual a importância histórica do Correio Aéreo Nacional (CAN) mencionada no texto?</t>
+        </is>
+      </c>
+      <c r="E198" t="inlineStr">
+        <is>
+          <t>Transporte de autoridades na década de 1950</t>
+        </is>
+      </c>
+      <c r="F198" t="inlineStr">
+        <is>
+          <t>Substituição permanente das ferrovias</t>
+        </is>
+      </c>
+      <c r="G198" t="inlineStr">
+        <is>
+          <t>Elo de preservação da unidade nacional ao desbravar rotas na selva</t>
+        </is>
+      </c>
+      <c r="H198" t="inlineStr">
+        <is>
+          <t>Vigilância da fronteira marítima</t>
+        </is>
+      </c>
+      <c r="I198" t="inlineStr">
+        <is>
+          <t>c</t>
+        </is>
+      </c>
+      <c r="J198" t="inlineStr">
+        <is>
+          <t>Conforme a página 101, o texto afirma que o CAN foi o "elo de preservação da unidade nacional" ao desbravar rotas na selva e levar socorro às populações longínquas.</t>
+        </is>
+      </c>
+      <c r="K198" t="inlineStr"/>
+      <c r="L198" t="inlineStr"/>
+      <c r="M198" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr"/>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>Pág 101</t>
+        </is>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D199" t="inlineStr">
+        <is>
+          <t>O programa “Avança Brasil” (1998) priorizou 12 eixos de infraestrutura. Qual o objetivo comum desses eixos?</t>
+        </is>
+      </c>
+      <c r="E199" t="inlineStr">
+        <is>
+          <t>Transferir a capital para o litoral nordestino</t>
+        </is>
+      </c>
+      <c r="F199" t="inlineStr">
+        <is>
+          <t>Construir uma muralha defensiva</t>
+        </is>
+      </c>
+      <c r="G199" t="inlineStr">
+        <is>
+          <t>Promover a integração regional e saídas para o comércio exterior</t>
+        </is>
+      </c>
+      <c r="H199" t="inlineStr">
+        <is>
+          <t>Focar apenas no eixo SP–RJ</t>
+        </is>
+      </c>
+      <c r="I199" t="inlineStr">
+        <is>
+          <t>c</t>
+        </is>
+      </c>
+      <c r="J199" t="inlineStr">
+        <is>
+          <t>De acordo com a página 101, os eixos foram priorizados visando a "objetivos de integração regional e favorecimento de saídas para o comércio exterior por via marítima e terrestre".</t>
+        </is>
+      </c>
+      <c r="K199" t="inlineStr"/>
+      <c r="L199" t="inlineStr"/>
+      <c r="M199" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/frontend-cemos/public/assets/content/geopolitica-ri/geopolitica-modernidade/scripts/m_consolidado.xlsx
+++ b/frontend-cemos/public/assets/content/geopolitica-ri/geopolitica-modernidade/scripts/m_consolidado.xlsx
@@ -4276,11 +4276,14 @@
   </sheetPr>
   <dimension ref="A1:P225"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A142" colorId="64" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E180" activeCellId="0" sqref="E180"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="89.57"/>
+  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -8515,6 +8518,9 @@
       </c>
     </row>
     <row r="104" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A104" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="B104" s="0" t="s">
         <v>740</v>
       </c>
@@ -8556,6 +8562,9 @@
       </c>
     </row>
     <row r="105" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A105" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="B105" s="0" t="s">
         <v>746</v>
       </c>
@@ -8597,6 +8606,9 @@
       </c>
     </row>
     <row r="106" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A106" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="B106" s="0" t="s">
         <v>752</v>
       </c>
@@ -8638,6 +8650,9 @@
       </c>
     </row>
     <row r="107" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A107" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="B107" s="0" t="s">
         <v>758</v>
       </c>
@@ -8679,6 +8694,9 @@
       </c>
     </row>
     <row r="108" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A108" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="B108" s="0" t="s">
         <v>764</v>
       </c>
@@ -8720,6 +8738,9 @@
       </c>
     </row>
     <row r="109" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A109" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="B109" s="0" t="s">
         <v>770</v>
       </c>
@@ -8761,6 +8782,9 @@
       </c>
     </row>
     <row r="110" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A110" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="B110" s="0" t="s">
         <v>776</v>
       </c>
@@ -8802,6 +8826,9 @@
       </c>
     </row>
     <row r="111" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A111" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="B111" s="0" t="s">
         <v>782</v>
       </c>
@@ -8843,6 +8870,9 @@
       </c>
     </row>
     <row r="112" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A112" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="B112" s="0" t="s">
         <v>788</v>
       </c>
@@ -8884,6 +8914,9 @@
       </c>
     </row>
     <row r="113" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A113" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="B113" s="0" t="s">
         <v>794</v>
       </c>
@@ -8925,6 +8958,9 @@
       </c>
     </row>
     <row r="114" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A114" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="B114" s="0" t="s">
         <v>800</v>
       </c>
@@ -8966,6 +9002,9 @@
       </c>
     </row>
     <row r="115" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A115" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="B115" s="0" t="s">
         <v>806</v>
       </c>
@@ -9007,6 +9046,9 @@
       </c>
     </row>
     <row r="116" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A116" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="B116" s="0" t="s">
         <v>812</v>
       </c>
@@ -9048,6 +9090,9 @@
       </c>
     </row>
     <row r="117" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A117" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="B117" s="0" t="s">
         <v>818</v>
       </c>
@@ -9089,6 +9134,9 @@
       </c>
     </row>
     <row r="118" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A118" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="B118" s="0" t="s">
         <v>824</v>
       </c>
@@ -9130,6 +9178,9 @@
       </c>
     </row>
     <row r="119" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A119" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="B119" s="0" t="s">
         <v>830</v>
       </c>
@@ -9171,6 +9222,9 @@
       </c>
     </row>
     <row r="120" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A120" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="B120" s="0" t="s">
         <v>836</v>
       </c>
@@ -9212,6 +9266,9 @@
       </c>
     </row>
     <row r="121" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A121" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="B121" s="0" t="s">
         <v>842</v>
       </c>
@@ -9253,6 +9310,9 @@
       </c>
     </row>
     <row r="122" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A122" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="B122" s="0" t="s">
         <v>848</v>
       </c>
@@ -9294,6 +9354,9 @@
       </c>
     </row>
     <row r="123" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A123" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="B123" s="0" t="s">
         <v>854</v>
       </c>
@@ -9335,6 +9398,9 @@
       </c>
     </row>
     <row r="124" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A124" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="B124" s="0" t="s">
         <v>860</v>
       </c>
@@ -9376,6 +9442,9 @@
       </c>
     </row>
     <row r="125" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A125" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="B125" s="0" t="s">
         <v>866</v>
       </c>
@@ -9417,6 +9486,9 @@
       </c>
     </row>
     <row r="126" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A126" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="B126" s="0" t="s">
         <v>872</v>
       </c>
@@ -9458,6 +9530,9 @@
       </c>
     </row>
     <row r="127" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A127" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="B127" s="0" t="s">
         <v>878</v>
       </c>
@@ -9499,6 +9574,9 @@
       </c>
     </row>
     <row r="128" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A128" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="B128" s="0" t="s">
         <v>884</v>
       </c>
@@ -9540,6 +9618,9 @@
       </c>
     </row>
     <row r="129" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A129" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="B129" s="0" t="s">
         <v>890</v>
       </c>
@@ -9581,6 +9662,9 @@
       </c>
     </row>
     <row r="130" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A130" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="B130" s="0" t="s">
         <v>896</v>
       </c>
@@ -9622,6 +9706,9 @@
       </c>
     </row>
     <row r="131" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A131" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="B131" s="0" t="s">
         <v>902</v>
       </c>
@@ -9663,6 +9750,9 @@
       </c>
     </row>
     <row r="132" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A132" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="B132" s="0" t="s">
         <v>908</v>
       </c>
@@ -9704,6 +9794,9 @@
       </c>
     </row>
     <row r="133" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A133" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="B133" s="0" t="s">
         <v>914</v>
       </c>
@@ -9745,6 +9838,9 @@
       </c>
     </row>
     <row r="134" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A134" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="B134" s="0" t="s">
         <v>920</v>
       </c>
@@ -9786,6 +9882,9 @@
       </c>
     </row>
     <row r="135" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A135" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="B135" s="0" t="s">
         <v>926</v>
       </c>
@@ -9827,6 +9926,9 @@
       </c>
     </row>
     <row r="136" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A136" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="B136" s="0" t="s">
         <v>932</v>
       </c>
@@ -9868,6 +9970,9 @@
       </c>
     </row>
     <row r="137" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A137" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="B137" s="0" t="s">
         <v>938</v>
       </c>
@@ -9909,6 +10014,9 @@
       </c>
     </row>
     <row r="138" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A138" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="B138" s="0" t="s">
         <v>944</v>
       </c>
@@ -9950,6 +10058,9 @@
       </c>
     </row>
     <row r="139" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A139" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="B139" s="0" t="s">
         <v>950</v>
       </c>
@@ -9991,6 +10102,9 @@
       </c>
     </row>
     <row r="140" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A140" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="B140" s="0" t="s">
         <v>957</v>
       </c>
@@ -10032,6 +10146,9 @@
       </c>
     </row>
     <row r="141" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A141" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="B141" s="0" t="s">
         <v>963</v>
       </c>
@@ -10073,6 +10190,9 @@
       </c>
     </row>
     <row r="142" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A142" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="B142" s="0" t="s">
         <v>969</v>
       </c>
@@ -10114,6 +10234,9 @@
       </c>
     </row>
     <row r="143" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A143" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="B143" s="0" t="s">
         <v>975</v>
       </c>
@@ -10155,6 +10278,9 @@
       </c>
     </row>
     <row r="144" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A144" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="B144" s="0" t="s">
         <v>981</v>
       </c>
@@ -10196,6 +10322,9 @@
       </c>
     </row>
     <row r="145" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A145" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="B145" s="0" t="s">
         <v>987</v>
       </c>
@@ -10237,6 +10366,9 @@
       </c>
     </row>
     <row r="146" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A146" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="B146" s="0" t="s">
         <v>993</v>
       </c>
@@ -10278,6 +10410,9 @@
       </c>
     </row>
     <row r="147" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A147" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="B147" s="0" t="s">
         <v>999</v>
       </c>
@@ -10319,6 +10454,9 @@
       </c>
     </row>
     <row r="148" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A148" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="B148" s="0" t="s">
         <v>1005</v>
       </c>
@@ -10360,6 +10498,9 @@
       </c>
     </row>
     <row r="149" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A149" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="B149" s="0" t="s">
         <v>1011</v>
       </c>
@@ -10401,6 +10542,9 @@
       </c>
     </row>
     <row r="150" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A150" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="B150" s="0" t="s">
         <v>1017</v>
       </c>
@@ -10442,6 +10586,9 @@
       </c>
     </row>
     <row r="151" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A151" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="B151" s="0" t="s">
         <v>1023</v>
       </c>
@@ -10483,6 +10630,9 @@
       </c>
     </row>
     <row r="152" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A152" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="B152" s="0" t="s">
         <v>1029</v>
       </c>
@@ -10524,6 +10674,9 @@
       </c>
     </row>
     <row r="153" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A153" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="B153" s="0" t="s">
         <v>1035</v>
       </c>
@@ -10565,6 +10718,9 @@
       </c>
     </row>
     <row r="154" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A154" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="B154" s="0" t="s">
         <v>1041</v>
       </c>
@@ -10606,6 +10762,9 @@
       </c>
     </row>
     <row r="155" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A155" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="B155" s="0" t="s">
         <v>1047</v>
       </c>
@@ -10647,6 +10806,9 @@
       </c>
     </row>
     <row r="156" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A156" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="B156" s="0" t="s">
         <v>1053</v>
       </c>
@@ -10688,6 +10850,9 @@
       </c>
     </row>
     <row r="157" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A157" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="B157" s="0" t="s">
         <v>1059</v>
       </c>
@@ -10729,6 +10894,9 @@
       </c>
     </row>
     <row r="158" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A158" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="B158" s="0" t="s">
         <v>1065</v>
       </c>
@@ -10770,6 +10938,9 @@
       </c>
     </row>
     <row r="159" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A159" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="B159" s="0" t="s">
         <v>1071</v>
       </c>
@@ -10811,6 +10982,9 @@
       </c>
     </row>
     <row r="160" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A160" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="B160" s="0" t="s">
         <v>1077</v>
       </c>
@@ -10852,6 +11026,9 @@
       </c>
     </row>
     <row r="161" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A161" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="B161" s="0" t="s">
         <v>1083</v>
       </c>
@@ -10893,6 +11070,9 @@
       </c>
     </row>
     <row r="162" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A162" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="B162" s="0" t="s">
         <v>1089</v>
       </c>
@@ -10934,6 +11114,9 @@
       </c>
     </row>
     <row r="163" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A163" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="B163" s="0" t="s">
         <v>1095</v>
       </c>
@@ -10975,6 +11158,9 @@
       </c>
     </row>
     <row r="164" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A164" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="B164" s="0" t="s">
         <v>1101</v>
       </c>
@@ -11016,6 +11202,9 @@
       </c>
     </row>
     <row r="165" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A165" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="B165" s="0" t="s">
         <v>1107</v>
       </c>
@@ -11057,6 +11246,9 @@
       </c>
     </row>
     <row r="166" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A166" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="B166" s="0" t="s">
         <v>1113</v>
       </c>
@@ -11098,6 +11290,9 @@
       </c>
     </row>
     <row r="167" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A167" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="B167" s="0" t="s">
         <v>1119</v>
       </c>
@@ -11139,6 +11334,9 @@
       </c>
     </row>
     <row r="168" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A168" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="B168" s="0" t="s">
         <v>1125</v>
       </c>
@@ -11180,6 +11378,9 @@
       </c>
     </row>
     <row r="169" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A169" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="B169" s="0" t="s">
         <v>1131</v>
       </c>
@@ -11221,6 +11422,9 @@
       </c>
     </row>
     <row r="170" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A170" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="B170" s="0" t="s">
         <v>1137</v>
       </c>
@@ -11262,6 +11466,9 @@
       </c>
     </row>
     <row r="171" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A171" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="B171" s="0" t="s">
         <v>1143</v>
       </c>
@@ -11303,6 +11510,9 @@
       </c>
     </row>
     <row r="172" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A172" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="B172" s="0" t="s">
         <v>1149</v>
       </c>
@@ -11344,6 +11554,9 @@
       </c>
     </row>
     <row r="173" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A173" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="B173" s="0" t="s">
         <v>1155</v>
       </c>
@@ -11385,6 +11598,9 @@
       </c>
     </row>
     <row r="174" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A174" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="B174" s="0" t="s">
         <v>1161</v>
       </c>
@@ -11426,6 +11642,9 @@
       </c>
     </row>
     <row r="175" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A175" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="B175" s="0" t="s">
         <v>1167</v>
       </c>
@@ -11467,6 +11686,9 @@
       </c>
     </row>
     <row r="176" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A176" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="B176" s="0" t="s">
         <v>1173</v>
       </c>
@@ -11508,6 +11730,9 @@
       </c>
     </row>
     <row r="177" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A177" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="B177" s="0" t="s">
         <v>1179</v>
       </c>
@@ -11549,6 +11774,9 @@
       </c>
     </row>
     <row r="178" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A178" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="B178" s="0" t="s">
         <v>1185</v>
       </c>
@@ -11590,6 +11818,9 @@
       </c>
     </row>
     <row r="179" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A179" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="B179" s="0" t="s">
         <v>1191</v>
       </c>
@@ -11631,6 +11862,9 @@
       </c>
     </row>
     <row r="180" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A180" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="B180" s="0" t="s">
         <v>1197</v>
       </c>
@@ -11672,6 +11906,9 @@
       </c>
     </row>
     <row r="181" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A181" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="B181" s="0" t="s">
         <v>1203</v>
       </c>
@@ -11713,6 +11950,9 @@
       </c>
     </row>
     <row r="182" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A182" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="B182" s="0" t="s">
         <v>1209</v>
       </c>
@@ -11754,6 +11994,9 @@
       </c>
     </row>
     <row r="183" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A183" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="B183" s="0" t="s">
         <v>1215</v>
       </c>
@@ -11795,6 +12038,9 @@
       </c>
     </row>
     <row r="184" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A184" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="B184" s="0" t="s">
         <v>1221</v>
       </c>
@@ -11836,6 +12082,9 @@
       </c>
     </row>
     <row r="185" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A185" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="B185" s="0" t="s">
         <v>1227</v>
       </c>
@@ -11877,6 +12126,9 @@
       </c>
     </row>
     <row r="186" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A186" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="B186" s="0" t="s">
         <v>1233</v>
       </c>
@@ -11918,6 +12170,9 @@
       </c>
     </row>
     <row r="187" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A187" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="B187" s="0" t="s">
         <v>1239</v>
       </c>
@@ -11959,6 +12214,9 @@
       </c>
     </row>
     <row r="188" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A188" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="B188" s="0" t="s">
         <v>1245</v>
       </c>
@@ -12000,6 +12258,9 @@
       </c>
     </row>
     <row r="189" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A189" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="B189" s="0" t="s">
         <v>1251</v>
       </c>
@@ -12041,6 +12302,9 @@
       </c>
     </row>
     <row r="190" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A190" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="B190" s="0" t="s">
         <v>1257</v>
       </c>
@@ -12082,6 +12346,9 @@
       </c>
     </row>
     <row r="191" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A191" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="B191" s="0" t="s">
         <v>1263</v>
       </c>
@@ -12123,6 +12390,9 @@
       </c>
     </row>
     <row r="192" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A192" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="B192" s="0" t="s">
         <v>1269</v>
       </c>
@@ -12164,6 +12434,9 @@
       </c>
     </row>
     <row r="193" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A193" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="B193" s="0" t="s">
         <v>1275</v>
       </c>
@@ -12205,6 +12478,9 @@
       </c>
     </row>
     <row r="194" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A194" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="B194" s="0" t="s">
         <v>1281</v>
       </c>
@@ -12246,6 +12522,9 @@
       </c>
     </row>
     <row r="195" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A195" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="B195" s="0" t="s">
         <v>1287</v>
       </c>
@@ -12287,6 +12566,9 @@
       </c>
     </row>
     <row r="196" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A196" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="B196" s="0" t="s">
         <v>1293</v>
       </c>
@@ -12328,6 +12610,9 @@
       </c>
     </row>
     <row r="197" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A197" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="B197" s="0" t="s">
         <v>1299</v>
       </c>
@@ -12369,6 +12654,9 @@
       </c>
     </row>
     <row r="198" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A198" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="B198" s="0" t="s">
         <v>1305</v>
       </c>
@@ -12410,6 +12698,9 @@
       </c>
     </row>
     <row r="199" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A199" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="B199" s="0" t="s">
         <v>1311</v>
       </c>
